--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_12_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>132574.5103531937</v>
+        <v>9991.630327576717</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6998745.387964943</v>
+        <v>6946959.422482554</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21605618.92145294</v>
+        <v>21521641.05796844</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5185426.310523221</v>
+        <v>5232381.095003279</v>
       </c>
     </row>
     <row r="11">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.261766445655231</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>38.85760999765319</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="V18" t="n">
-        <v>4.261766445655231</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="W18" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>38.85760999765319</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4.261766445655231</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>4.838517763005484</v>
+        <v>38.85760999765318</v>
       </c>
       <c r="V19" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="X19" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="F20" t="n">
-        <v>4.261766445655231</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.838517763005484</v>
+        <v>38.85760999765318</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="V20" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4.838517763005484</v>
+        <v>38.85760999765319</v>
       </c>
       <c r="F21" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.261766445655231</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
     </row>
     <row r="22">
@@ -2259,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>4.261766445655231</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>38.85760999765318</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="T22" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="X22" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>53.50851947117943</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="C23" t="n">
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="Y23" t="n">
         <v>60.749908573092</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>53.50851947117942</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2399,70 +2399,70 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>53.50851947117942</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
       <c r="W24" t="n">
-        <v>53.50851947117942</v>
+        <v>60.749908573092</v>
       </c>
       <c r="X24" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>60.749908573092</v>
@@ -2481,70 +2481,70 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="W25" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="X25" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="R25" t="n">
-        <v>53.50851947117942</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>53.50851947117943</v>
       </c>
     </row>
     <row r="26">
@@ -2560,64 +2560,64 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>53.50851947117943</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="E26" t="n">
+      <c r="V26" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="F26" t="n">
+      <c r="W26" t="n">
         <v>60.749908573092</v>
-      </c>
-      <c r="G26" t="n">
-        <v>53.50851947117943</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>60.749908573092</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>60.749908573092</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>60.749908573092</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>53.50851947117943</v>
       </c>
       <c r="V27" t="n">
-        <v>53.50851947117942</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,73 +2715,73 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="D28" t="n">
-        <v>53.50851947117943</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>53.50851947117942</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
         <v>60.749908573092</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H29" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="Y29" t="n">
-        <v>53.50851947117942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G30" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>53.50851947117943</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>60.749908573092</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="G31" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>53.50851947117942</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="F32" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>53.50851947117943</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V33" t="n">
-        <v>53.50851947117942</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="W33" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X33" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
     </row>
     <row r="34">
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>53.50851947117942</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X34" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>53.50851947117942</v>
       </c>
       <c r="U35" t="n">
-        <v>53.50851947117942</v>
+        <v>60.749908573092</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>60.749908573092</v>
-      </c>
-      <c r="W35" t="n">
-        <v>60.749908573092</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,64 +3353,64 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="V36" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="W36" t="n">
+        <v>60.749908573092</v>
+      </c>
+      <c r="X36" t="n">
         <v>53.50851947117943</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>60.749908573092</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3429,70 +3429,70 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>53.50851947117942</v>
+      </c>
+      <c r="W37" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="X37" t="n">
         <v>60.749908573092</v>
       </c>
-      <c r="R37" t="n">
+      <c r="Y37" t="n">
         <v>60.749908573092</v>
-      </c>
-      <c r="S37" t="n">
-        <v>53.50851947117942</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="E38" t="n">
-        <v>53.50851947117942</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>60.749908573092</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>53.50851947117942</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3705,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="R40" t="n">
-        <v>53.50851947117942</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="S40" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>60.749908573092</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>60.749908573092</v>
+        <v>53.50851947117948</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>41.59853543840626</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="V41" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>49.24675302552419</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="T42" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>41.59853543840627</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>49.24675302552419</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.59853543840627</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>49.24675302552419</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>49.24675302552419</v>
+        <v>41.59853543840627</v>
       </c>
       <c r="F44" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>49.24675302552419</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>41.59853543840626</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="W45" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="F46" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55.91139081008652</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>49.24675302552419</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>41.59853543840626</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.35407105202194</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="C17" t="n">
-        <v>15.049256460451</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="D17" t="n">
-        <v>10.16186478064748</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="E17" t="n">
-        <v>5.274473100843958</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3870814210404387</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3870814210404387</v>
+        <v>8.057409813617342</v>
       </c>
       <c r="M17" t="n">
-        <v>5.177214006415868</v>
+        <v>51.73251641860899</v>
       </c>
       <c r="N17" t="n">
-        <v>9.967346591791298</v>
+        <v>95.40762302360065</v>
       </c>
       <c r="O17" t="n">
-        <v>14.75747917716673</v>
+        <v>132.7899705868938</v>
       </c>
       <c r="P17" t="n">
-        <v>14.75747917716673</v>
+        <v>132.7899705868938</v>
       </c>
       <c r="Q17" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="R17" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="S17" t="n">
-        <v>19.35407105202194</v>
+        <v>131.9031890121164</v>
       </c>
       <c r="T17" t="n">
-        <v>19.35407105202194</v>
+        <v>87.34130083234737</v>
       </c>
       <c r="U17" t="n">
-        <v>19.35407105202194</v>
+        <v>87.34130083234737</v>
       </c>
       <c r="V17" t="n">
-        <v>19.35407105202194</v>
+        <v>87.34130083234737</v>
       </c>
       <c r="W17" t="n">
-        <v>19.35407105202194</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="X17" t="n">
-        <v>19.35407105202194</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.35407105202194</v>
+        <v>42.77941265257831</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="L18" t="n">
-        <v>4.983673295895652</v>
+        <v>47.20440814882937</v>
       </c>
       <c r="M18" t="n">
-        <v>9.77380588127108</v>
+        <v>90.87951475382101</v>
       </c>
       <c r="N18" t="n">
-        <v>14.56393846664651</v>
+        <v>107.3090573312758</v>
       </c>
       <c r="O18" t="n">
-        <v>19.35407105202194</v>
+        <v>150.9841639362675</v>
       </c>
       <c r="P18" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="R18" t="n">
-        <v>14.46667937221842</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="S18" t="n">
-        <v>9.579287692414898</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="T18" t="n">
-        <v>9.579287692414898</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="U18" t="n">
-        <v>9.579287692414898</v>
+        <v>131.9031890121164</v>
       </c>
       <c r="V18" t="n">
-        <v>5.274473100843958</v>
+        <v>87.34130083234737</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3870814210404387</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3870814210404387</v>
+        <v>47.20440814882937</v>
       </c>
       <c r="M19" t="n">
-        <v>4.983673295895652</v>
+        <v>90.87951475382101</v>
       </c>
       <c r="N19" t="n">
-        <v>9.77380588127108</v>
+        <v>134.5546213588127</v>
       </c>
       <c r="O19" t="n">
-        <v>14.56393846664651</v>
+        <v>156.7508805276098</v>
       </c>
       <c r="P19" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="R19" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="S19" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="T19" t="n">
-        <v>15.049256460451</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="U19" t="n">
-        <v>10.16186478064748</v>
+        <v>137.2149660831449</v>
       </c>
       <c r="V19" t="n">
-        <v>5.274473100843958</v>
+        <v>92.65307790337584</v>
       </c>
       <c r="W19" t="n">
-        <v>5.274473100843958</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="X19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.579287692414898</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="C20" t="n">
-        <v>9.579287692414898</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="D20" t="n">
-        <v>9.579287692414898</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="E20" t="n">
-        <v>4.691896012611378</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3870814210404387</v>
+        <v>47.20440814882937</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3870814210404387</v>
+        <v>47.20440814882937</v>
       </c>
       <c r="L20" t="n">
-        <v>4.983673295895652</v>
+        <v>51.73251641860899</v>
       </c>
       <c r="M20" t="n">
-        <v>9.77380588127108</v>
+        <v>95.40762302360065</v>
       </c>
       <c r="N20" t="n">
-        <v>14.56393846664651</v>
+        <v>139.0827296285923</v>
       </c>
       <c r="O20" t="n">
-        <v>19.35407105202194</v>
+        <v>170.0373606268418</v>
       </c>
       <c r="P20" t="n">
-        <v>19.35407105202194</v>
+        <v>170.0373606268418</v>
       </c>
       <c r="Q20" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="R20" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="S20" t="n">
-        <v>14.46667937221842</v>
+        <v>137.2149660831449</v>
       </c>
       <c r="T20" t="n">
-        <v>14.46667937221842</v>
+        <v>92.65307790337584</v>
       </c>
       <c r="U20" t="n">
-        <v>14.46667937221842</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="V20" t="n">
-        <v>9.579287692414898</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="W20" t="n">
-        <v>9.579287692414898</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="X20" t="n">
-        <v>9.579287692414898</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.579287692414898</v>
+        <v>48.09118972360677</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.049256460451</v>
+        <v>87.34130083234737</v>
       </c>
       <c r="C21" t="n">
-        <v>15.049256460451</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="D21" t="n">
-        <v>15.049256460451</v>
+        <v>42.77941265257831</v>
       </c>
       <c r="E21" t="n">
-        <v>10.16186478064748</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="F21" t="n">
-        <v>5.274473100843958</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="L21" t="n">
-        <v>4.983673295895652</v>
+        <v>45.43975737691053</v>
       </c>
       <c r="M21" t="n">
-        <v>4.983673295895652</v>
+        <v>89.11486398190219</v>
       </c>
       <c r="N21" t="n">
-        <v>9.77380588127108</v>
+        <v>132.7899705868938</v>
       </c>
       <c r="O21" t="n">
-        <v>14.56393846664651</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="P21" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="R21" t="n">
-        <v>15.049256460451</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="S21" t="n">
-        <v>15.049256460451</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="T21" t="n">
-        <v>15.049256460451</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="U21" t="n">
-        <v>15.049256460451</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="V21" t="n">
-        <v>15.049256460451</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="W21" t="n">
-        <v>15.049256460451</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="X21" t="n">
-        <v>15.049256460451</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.049256460451</v>
+        <v>131.9031890121164</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="C22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="D22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="E22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="F22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="G22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="H22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="I22" t="n">
-        <v>5.274473100843958</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3870814210404387</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4857642776015716</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4857642776015716</v>
+        <v>47.20440814882937</v>
       </c>
       <c r="M22" t="n">
-        <v>4.983673295895652</v>
+        <v>89.11486398190219</v>
       </c>
       <c r="N22" t="n">
-        <v>9.77380588127108</v>
+        <v>132.7899705868938</v>
       </c>
       <c r="O22" t="n">
-        <v>14.56393846664651</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="P22" t="n">
-        <v>19.35407105202194</v>
+        <v>176.4650771918855</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.35407105202194</v>
+        <v>137.2149660831449</v>
       </c>
       <c r="R22" t="n">
-        <v>19.35407105202194</v>
+        <v>137.2149660831449</v>
       </c>
       <c r="S22" t="n">
-        <v>19.35407105202194</v>
+        <v>92.65307790337584</v>
       </c>
       <c r="T22" t="n">
-        <v>14.46667937221842</v>
+        <v>92.65307790337584</v>
       </c>
       <c r="U22" t="n">
-        <v>14.46667937221842</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="V22" t="n">
-        <v>14.46667937221842</v>
+        <v>48.09118972360677</v>
       </c>
       <c r="W22" t="n">
-        <v>14.46667937221842</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="X22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.579287692414898</v>
+        <v>3.52930154383771</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>127.5870807122959</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="C23" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="D23" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="E23" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="F23" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="G23" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="H23" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="I23" t="n">
         <v>4.85999268584736</v>
       </c>
       <c r="J23" t="n">
-        <v>4.85999268584736</v>
+        <v>56.63135318824767</v>
       </c>
       <c r="K23" t="n">
-        <v>4.85999268584736</v>
+        <v>56.63135318824767</v>
       </c>
       <c r="L23" t="n">
-        <v>65.00240217320844</v>
+        <v>75.95896826494123</v>
       </c>
       <c r="M23" t="n">
-        <v>125.1448116605695</v>
+        <v>136.1013777523023</v>
       </c>
       <c r="N23" t="n">
-        <v>185.2872211479306</v>
+        <v>196.2437872396634</v>
       </c>
       <c r="O23" t="n">
         <v>242.999634292368</v>
@@ -6013,28 +6013,28 @@
         <v>242.999634292368</v>
       </c>
       <c r="R23" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791438</v>
       </c>
       <c r="S23" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791438</v>
       </c>
       <c r="T23" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791438</v>
       </c>
       <c r="U23" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791438</v>
       </c>
       <c r="V23" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791438</v>
       </c>
       <c r="W23" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791438</v>
       </c>
       <c r="X23" t="n">
-        <v>188.9506247255201</v>
+        <v>120.2725462659195</v>
       </c>
       <c r="Y23" t="n">
-        <v>188.9506247255201</v>
+        <v>58.90900225269527</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="C24" t="n">
         <v>4.85999268584736</v>
@@ -6074,7 +6074,7 @@
         <v>4.85999268584736</v>
       </c>
       <c r="L24" t="n">
-        <v>27.50973227495507</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M24" t="n">
         <v>87.65214176231615</v>
@@ -6095,25 +6095,25 @@
         <v>242.999634292368</v>
       </c>
       <c r="S24" t="n">
-        <v>242.999634292368</v>
+        <v>188.9506247255201</v>
       </c>
       <c r="T24" t="n">
-        <v>242.999634292368</v>
+        <v>188.9506247255201</v>
       </c>
       <c r="U24" t="n">
-        <v>242.999634292368</v>
+        <v>188.9506247255201</v>
       </c>
       <c r="V24" t="n">
-        <v>242.999634292368</v>
+        <v>127.5870807122959</v>
       </c>
       <c r="W24" t="n">
-        <v>188.9506247255201</v>
+        <v>66.22353669907162</v>
       </c>
       <c r="X24" t="n">
-        <v>127.5870807122959</v>
+        <v>66.22353669907162</v>
       </c>
       <c r="Y24" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>127.5870807122959</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="C25" t="n">
-        <v>127.5870807122959</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="D25" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="E25" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="F25" t="n">
         <v>4.85999268584736</v>
@@ -6153,46 +6153,46 @@
         <v>17.93906793709468</v>
       </c>
       <c r="L25" t="n">
-        <v>78.08147742445576</v>
+        <v>38.37258439959123</v>
       </c>
       <c r="M25" t="n">
-        <v>138.2238869118168</v>
+        <v>98.51499388695231</v>
       </c>
       <c r="N25" t="n">
-        <v>198.3662963991779</v>
+        <v>158.6574033743134</v>
       </c>
       <c r="O25" t="n">
-        <v>242.999634292368</v>
+        <v>218.1975783181167</v>
       </c>
       <c r="P25" t="n">
         <v>242.999634292368</v>
       </c>
       <c r="Q25" t="n">
+        <v>242.999634292368</v>
+      </c>
+      <c r="R25" t="n">
+        <v>242.999634292368</v>
+      </c>
+      <c r="S25" t="n">
+        <v>242.999634292368</v>
+      </c>
+      <c r="T25" t="n">
+        <v>242.999634292368</v>
+      </c>
+      <c r="U25" t="n">
+        <v>242.999634292368</v>
+      </c>
+      <c r="V25" t="n">
         <v>181.6360902791438</v>
       </c>
-      <c r="R25" t="n">
-        <v>127.5870807122959</v>
-      </c>
-      <c r="S25" t="n">
-        <v>127.5870807122959</v>
-      </c>
-      <c r="T25" t="n">
-        <v>127.5870807122959</v>
-      </c>
-      <c r="U25" t="n">
-        <v>127.5870807122959</v>
-      </c>
-      <c r="V25" t="n">
-        <v>127.5870807122959</v>
-      </c>
       <c r="W25" t="n">
-        <v>127.5870807122959</v>
+        <v>120.2725462659195</v>
       </c>
       <c r="X25" t="n">
-        <v>127.5870807122959</v>
+        <v>58.90900225269527</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.5870807122959</v>
+        <v>4.85999268584736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>242.999634292368</v>
+        <v>58.90900225269527</v>
       </c>
       <c r="C26" t="n">
-        <v>242.999634292368</v>
+        <v>58.90900225269527</v>
       </c>
       <c r="D26" t="n">
-        <v>181.6360902791438</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="E26" t="n">
-        <v>120.2725462659195</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="F26" t="n">
-        <v>58.90900225269527</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="G26" t="n">
         <v>4.85999268584736</v>
@@ -6235,7 +6235,7 @@
         <v>24.18760776254093</v>
       </c>
       <c r="M26" t="n">
-        <v>84.330017249902</v>
+        <v>84.33001724990206</v>
       </c>
       <c r="N26" t="n">
         <v>144.4724267372631</v>
@@ -6244,7 +6244,7 @@
         <v>191.2282737899677</v>
       </c>
       <c r="P26" t="n">
-        <v>191.2282737899677</v>
+        <v>242.999634292368</v>
       </c>
       <c r="Q26" t="n">
         <v>242.999634292368</v>
@@ -6259,19 +6259,19 @@
         <v>242.999634292368</v>
       </c>
       <c r="U26" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791438</v>
       </c>
       <c r="V26" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659195</v>
       </c>
       <c r="W26" t="n">
-        <v>242.999634292368</v>
+        <v>58.90900225269527</v>
       </c>
       <c r="X26" t="n">
-        <v>242.999634292368</v>
+        <v>58.90900225269527</v>
       </c>
       <c r="Y26" t="n">
-        <v>242.999634292368</v>
+        <v>58.90900225269527</v>
       </c>
     </row>
     <row r="27">
@@ -6320,7 +6320,7 @@
         <v>181.6583118698577</v>
       </c>
       <c r="O27" t="n">
-        <v>241.8007213572187</v>
+        <v>207.9369607370383</v>
       </c>
       <c r="P27" t="n">
         <v>242.999634292368</v>
@@ -6329,25 +6329,25 @@
         <v>242.999634292368</v>
       </c>
       <c r="R27" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791438</v>
       </c>
       <c r="S27" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659195</v>
       </c>
       <c r="T27" t="n">
-        <v>242.999634292368</v>
+        <v>58.90900225269527</v>
       </c>
       <c r="U27" t="n">
-        <v>242.999634292368</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="V27" t="n">
-        <v>188.9506247255201</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="W27" t="n">
-        <v>127.5870807122959</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="X27" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="Y27" t="n">
         <v>4.85999268584736</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.2725462659195</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="C28" t="n">
-        <v>58.90900225269527</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="D28" t="n">
         <v>4.85999268584736</v>
@@ -6390,13 +6390,13 @@
         <v>17.93906793709468</v>
       </c>
       <c r="L28" t="n">
-        <v>38.37258439959123</v>
+        <v>78.08147742445576</v>
       </c>
       <c r="M28" t="n">
-        <v>98.51499388695231</v>
+        <v>138.2238869118168</v>
       </c>
       <c r="N28" t="n">
-        <v>158.6574033743134</v>
+        <v>198.3662963991779</v>
       </c>
       <c r="O28" t="n">
         <v>218.1975783181167</v>
@@ -6405,10 +6405,10 @@
         <v>242.999634292368</v>
       </c>
       <c r="Q28" t="n">
-        <v>181.6360902791438</v>
+        <v>242.999634292368</v>
       </c>
       <c r="R28" t="n">
-        <v>181.6360902791438</v>
+        <v>242.999634292368</v>
       </c>
       <c r="S28" t="n">
         <v>181.6360902791438</v>
@@ -6417,19 +6417,19 @@
         <v>181.6360902791438</v>
       </c>
       <c r="U28" t="n">
-        <v>181.6360902791438</v>
+        <v>127.5870807122959</v>
       </c>
       <c r="V28" t="n">
-        <v>181.6360902791438</v>
+        <v>127.5870807122959</v>
       </c>
       <c r="W28" t="n">
-        <v>120.2725462659195</v>
+        <v>127.5870807122959</v>
       </c>
       <c r="X28" t="n">
-        <v>120.2725462659195</v>
+        <v>66.22353669907162</v>
       </c>
       <c r="Y28" t="n">
-        <v>120.2725462659195</v>
+        <v>4.85999268584736</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>127.5870807122959</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="C29" t="n">
-        <v>127.5870807122959</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="D29" t="n">
-        <v>127.5870807122959</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="E29" t="n">
-        <v>127.5870807122959</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="F29" t="n">
-        <v>66.22353669907162</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G29" t="n">
-        <v>66.22353669907162</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H29" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I29" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J29" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K29" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L29" t="n">
-        <v>24.18760776254093</v>
+        <v>62.57240583028482</v>
       </c>
       <c r="M29" t="n">
-        <v>84.330017249902</v>
+        <v>122.714815317646</v>
       </c>
       <c r="N29" t="n">
-        <v>144.4724267372631</v>
+        <v>182.8572248050071</v>
       </c>
       <c r="O29" t="n">
-        <v>191.2282737899677</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P29" t="n">
-        <v>191.2282737899677</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q29" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R29" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S29" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="T29" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="U29" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V29" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W29" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X29" t="n">
-        <v>242.999634292368</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="Y29" t="n">
-        <v>188.9506247255201</v>
+        <v>66.22353669907167</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>181.6360902791438</v>
+        <v>127.587080712296</v>
       </c>
       <c r="C30" t="n">
-        <v>181.6360902791438</v>
+        <v>127.587080712296</v>
       </c>
       <c r="D30" t="n">
-        <v>181.6360902791438</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="E30" t="n">
-        <v>181.6360902791438</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="F30" t="n">
-        <v>181.6360902791438</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G30" t="n">
-        <v>120.2725462659195</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H30" t="n">
-        <v>58.90900225269527</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I30" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J30" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K30" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L30" t="n">
         <v>61.37349289513551</v>
@@ -6554,40 +6554,40 @@
         <v>121.5159023824966</v>
       </c>
       <c r="N30" t="n">
-        <v>181.6583118698577</v>
+        <v>181.6583118698578</v>
       </c>
       <c r="O30" t="n">
-        <v>241.8007213572187</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P30" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q30" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R30" t="n">
-        <v>181.6360902791438</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="S30" t="n">
-        <v>181.6360902791438</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="T30" t="n">
-        <v>181.6360902791438</v>
+        <v>127.587080712296</v>
       </c>
       <c r="U30" t="n">
-        <v>181.6360902791438</v>
+        <v>127.587080712296</v>
       </c>
       <c r="V30" t="n">
-        <v>181.6360902791438</v>
+        <v>127.587080712296</v>
       </c>
       <c r="W30" t="n">
-        <v>181.6360902791438</v>
+        <v>127.587080712296</v>
       </c>
       <c r="X30" t="n">
-        <v>181.6360902791438</v>
+        <v>127.587080712296</v>
       </c>
       <c r="Y30" t="n">
-        <v>181.6360902791438</v>
+        <v>127.587080712296</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.22353669907162</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="C31" t="n">
-        <v>66.22353669907162</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="D31" t="n">
-        <v>66.22353669907162</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="E31" t="n">
-        <v>66.22353669907162</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="F31" t="n">
-        <v>66.22353669907162</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G31" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H31" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I31" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J31" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K31" t="n">
-        <v>17.93906793709468</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L31" t="n">
-        <v>78.08147742445576</v>
+        <v>65.00240217320849</v>
       </c>
       <c r="M31" t="n">
-        <v>138.2238869118168</v>
+        <v>125.1448116605696</v>
       </c>
       <c r="N31" t="n">
-        <v>198.3662963991779</v>
+        <v>185.2872211479308</v>
       </c>
       <c r="O31" t="n">
-        <v>218.1975783181167</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P31" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R31" t="n">
-        <v>188.9506247255201</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S31" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="T31" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="U31" t="n">
-        <v>188.9506247255201</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V31" t="n">
-        <v>127.5870807122959</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="W31" t="n">
-        <v>127.5870807122959</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X31" t="n">
-        <v>127.5870807122959</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.22353669907162</v>
+        <v>120.2725462659196</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>181.6360902791438</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="C32" t="n">
-        <v>181.6360902791438</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="D32" t="n">
-        <v>181.6360902791438</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="E32" t="n">
-        <v>120.2725462659195</v>
+        <v>127.587080712296</v>
       </c>
       <c r="F32" t="n">
-        <v>58.90900225269527</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G32" t="n">
-        <v>58.90900225269527</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H32" t="n">
-        <v>58.90900225269527</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I32" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J32" t="n">
-        <v>56.63135318824767</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K32" t="n">
-        <v>56.63135318824767</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L32" t="n">
-        <v>75.95896826494123</v>
+        <v>62.57240583028482</v>
       </c>
       <c r="M32" t="n">
-        <v>136.1013777523023</v>
+        <v>122.714815317646</v>
       </c>
       <c r="N32" t="n">
-        <v>196.2437872396634</v>
+        <v>182.8572248050071</v>
       </c>
       <c r="O32" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="P32" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q32" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R32" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S32" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T32" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U32" t="n">
-        <v>242.999634292368</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="V32" t="n">
-        <v>242.999634292368</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="W32" t="n">
-        <v>242.999634292368</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="X32" t="n">
-        <v>181.6360902791438</v>
+        <v>188.9506247255203</v>
       </c>
       <c r="Y32" t="n">
-        <v>181.6360902791438</v>
+        <v>188.9506247255203</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.22353669907162</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="C33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="D33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K33" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L33" t="n">
-        <v>61.37349289513551</v>
+        <v>27.50973227495513</v>
       </c>
       <c r="M33" t="n">
-        <v>121.5159023824966</v>
+        <v>87.65214176231626</v>
       </c>
       <c r="N33" t="n">
-        <v>181.6583118698577</v>
+        <v>147.7945512496774</v>
       </c>
       <c r="O33" t="n">
-        <v>241.8007213572187</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P33" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q33" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R33" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S33" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T33" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U33" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="V33" t="n">
-        <v>188.9506247255201</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W33" t="n">
-        <v>127.5870807122959</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="X33" t="n">
-        <v>66.22353669907162</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="Y33" t="n">
-        <v>66.22353669907162</v>
+        <v>4.859992685847365</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.85999268584736</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="C34" t="n">
-        <v>4.85999268584736</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="D34" t="n">
-        <v>4.85999268584736</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="E34" t="n">
-        <v>4.85999268584736</v>
+        <v>127.587080712296</v>
       </c>
       <c r="F34" t="n">
-        <v>4.85999268584736</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G34" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H34" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I34" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J34" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K34" t="n">
-        <v>4.85999268584736</v>
+        <v>17.93906793709468</v>
       </c>
       <c r="L34" t="n">
-        <v>38.37258439959123</v>
+        <v>78.08147742445581</v>
       </c>
       <c r="M34" t="n">
-        <v>98.51499388695231</v>
+        <v>138.2238869118169</v>
       </c>
       <c r="N34" t="n">
-        <v>158.6574033743134</v>
+        <v>198.3662963991781</v>
       </c>
       <c r="O34" t="n">
-        <v>218.1975783181167</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P34" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q34" t="n">
-        <v>188.9506247255201</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R34" t="n">
-        <v>188.9506247255201</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="S34" t="n">
-        <v>188.9506247255201</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="T34" t="n">
-        <v>188.9506247255201</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="U34" t="n">
-        <v>127.5870807122959</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="V34" t="n">
-        <v>127.5870807122959</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="W34" t="n">
-        <v>66.22353669907162</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="X34" t="n">
-        <v>4.85999268584736</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.85999268584736</v>
+        <v>181.6360902791439</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>4.85999268584736</v>
       </c>
       <c r="J35" t="n">
-        <v>4.85999268584736</v>
+        <v>56.63135318824767</v>
       </c>
       <c r="K35" t="n">
-        <v>4.85999268584736</v>
+        <v>56.63135318824767</v>
       </c>
       <c r="L35" t="n">
-        <v>24.18760776254093</v>
+        <v>75.95896826494123</v>
       </c>
       <c r="M35" t="n">
-        <v>84.330017249902</v>
+        <v>136.1013777523023</v>
       </c>
       <c r="N35" t="n">
-        <v>144.4724267372631</v>
+        <v>196.2437872396634</v>
       </c>
       <c r="O35" t="n">
-        <v>191.2282737899677</v>
+        <v>242.999634292368</v>
       </c>
       <c r="P35" t="n">
-        <v>191.2282737899677</v>
+        <v>242.999634292368</v>
       </c>
       <c r="Q35" t="n">
         <v>242.999634292368</v>
@@ -6967,19 +6967,19 @@
         <v>242.999634292368</v>
       </c>
       <c r="T35" t="n">
-        <v>242.999634292368</v>
+        <v>188.9506247255201</v>
       </c>
       <c r="U35" t="n">
-        <v>188.9506247255201</v>
+        <v>127.5870807122959</v>
       </c>
       <c r="V35" t="n">
         <v>127.5870807122959</v>
       </c>
       <c r="W35" t="n">
-        <v>66.22353669907162</v>
+        <v>127.5870807122959</v>
       </c>
       <c r="X35" t="n">
-        <v>66.22353669907162</v>
+        <v>127.5870807122959</v>
       </c>
       <c r="Y35" t="n">
         <v>66.22353669907162</v>
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>181.6360902791438</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="C36" t="n">
-        <v>181.6360902791438</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="D36" t="n">
-        <v>181.6360902791438</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="E36" t="n">
-        <v>120.2725462659195</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="F36" t="n">
-        <v>120.2725462659195</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="G36" t="n">
-        <v>58.90900225269527</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="H36" t="n">
-        <v>58.90900225269527</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="I36" t="n">
         <v>4.85999268584736</v>
@@ -7043,25 +7043,25 @@
         <v>242.999634292368</v>
       </c>
       <c r="S36" t="n">
-        <v>181.6360902791438</v>
+        <v>242.999634292368</v>
       </c>
       <c r="T36" t="n">
-        <v>181.6360902791438</v>
+        <v>242.999634292368</v>
       </c>
       <c r="U36" t="n">
         <v>181.6360902791438</v>
       </c>
       <c r="V36" t="n">
-        <v>181.6360902791438</v>
+        <v>120.2725462659195</v>
       </c>
       <c r="W36" t="n">
-        <v>181.6360902791438</v>
+        <v>58.90900225269527</v>
       </c>
       <c r="X36" t="n">
-        <v>181.6360902791438</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="Y36" t="n">
-        <v>181.6360902791438</v>
+        <v>4.85999268584736</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="C37" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
       <c r="D37" t="n">
         <v>4.85999268584736</v>
@@ -7104,7 +7104,7 @@
         <v>78.08147742445576</v>
       </c>
       <c r="M37" t="n">
-        <v>98.51499388695231</v>
+        <v>138.2238869118168</v>
       </c>
       <c r="N37" t="n">
         <v>158.6574033743134</v>
@@ -7116,31 +7116,31 @@
         <v>242.999634292368</v>
       </c>
       <c r="Q37" t="n">
-        <v>181.6360902791438</v>
+        <v>242.999634292368</v>
       </c>
       <c r="R37" t="n">
-        <v>120.2725462659195</v>
+        <v>242.999634292368</v>
       </c>
       <c r="S37" t="n">
-        <v>66.22353669907162</v>
+        <v>242.999634292368</v>
       </c>
       <c r="T37" t="n">
-        <v>66.22353669907162</v>
+        <v>242.999634292368</v>
       </c>
       <c r="U37" t="n">
-        <v>66.22353669907162</v>
+        <v>242.999634292368</v>
       </c>
       <c r="V37" t="n">
-        <v>66.22353669907162</v>
+        <v>188.9506247255201</v>
       </c>
       <c r="W37" t="n">
-        <v>66.22353669907162</v>
+        <v>127.5870807122959</v>
       </c>
       <c r="X37" t="n">
         <v>66.22353669907162</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.22353669907162</v>
+        <v>4.85999268584736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>181.6360902791438</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="C38" t="n">
-        <v>181.6360902791438</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="D38" t="n">
-        <v>181.6360902791438</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="E38" t="n">
-        <v>127.5870807122959</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="F38" t="n">
-        <v>66.22353669907162</v>
+        <v>58.90900225269532</v>
       </c>
       <c r="G38" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H38" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I38" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J38" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K38" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L38" t="n">
-        <v>65.00240217320844</v>
+        <v>24.18760776254094</v>
       </c>
       <c r="M38" t="n">
-        <v>125.1448116605695</v>
+        <v>84.33001724990207</v>
       </c>
       <c r="N38" t="n">
-        <v>185.2872211479306</v>
+        <v>144.4724267372632</v>
       </c>
       <c r="O38" t="n">
-        <v>242.999634292368</v>
+        <v>191.2282737899678</v>
       </c>
       <c r="P38" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q38" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R38" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S38" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="T38" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="U38" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V38" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W38" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X38" t="n">
-        <v>181.6360902791438</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="Y38" t="n">
-        <v>181.6360902791438</v>
+        <v>120.2725462659196</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>127.5870807122959</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="C39" t="n">
-        <v>66.22353669907162</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="D39" t="n">
-        <v>66.22353669907162</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="E39" t="n">
-        <v>4.85999268584736</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="F39" t="n">
-        <v>4.85999268584736</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="G39" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H39" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I39" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J39" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K39" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="L39" t="n">
-        <v>27.50973227495507</v>
+        <v>61.37349289513551</v>
       </c>
       <c r="M39" t="n">
-        <v>87.65214176231615</v>
+        <v>121.5159023824966</v>
       </c>
       <c r="N39" t="n">
-        <v>147.7945512496772</v>
+        <v>147.7945512496774</v>
       </c>
       <c r="O39" t="n">
-        <v>207.9369607370383</v>
+        <v>207.9369607370385</v>
       </c>
       <c r="P39" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q39" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="R39" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="S39" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="T39" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="U39" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="V39" t="n">
-        <v>242.999634292368</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="W39" t="n">
-        <v>188.9506247255201</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="X39" t="n">
-        <v>188.9506247255201</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="Y39" t="n">
-        <v>188.9506247255201</v>
+        <v>120.2725462659196</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="C40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="D40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="E40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="F40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="G40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="H40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="I40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="J40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="K40" t="n">
-        <v>4.85999268584736</v>
+        <v>17.93906793709468</v>
       </c>
       <c r="L40" t="n">
-        <v>65.00240217320844</v>
+        <v>38.37258439959135</v>
       </c>
       <c r="M40" t="n">
-        <v>125.1448116605695</v>
+        <v>98.51499388695248</v>
       </c>
       <c r="N40" t="n">
-        <v>158.6574033743134</v>
+        <v>158.6574033743136</v>
       </c>
       <c r="O40" t="n">
-        <v>218.1975783181167</v>
+        <v>218.197578318117</v>
       </c>
       <c r="P40" t="n">
-        <v>242.999634292368</v>
+        <v>242.9996342923682</v>
       </c>
       <c r="Q40" t="n">
-        <v>242.999634292368</v>
+        <v>181.6360902791439</v>
       </c>
       <c r="R40" t="n">
-        <v>188.9506247255201</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="S40" t="n">
-        <v>127.5870807122959</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="T40" t="n">
-        <v>66.22353669907162</v>
+        <v>120.2725462659196</v>
       </c>
       <c r="U40" t="n">
-        <v>4.85999268584736</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="V40" t="n">
-        <v>4.85999268584736</v>
+        <v>66.22353669907167</v>
       </c>
       <c r="W40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="X40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.85999268584736</v>
+        <v>4.859992685847365</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.472911264806921</v>
+        <v>51.48343040432488</v>
       </c>
       <c r="C41" t="n">
-        <v>4.472911264806921</v>
+        <v>51.48343040432488</v>
       </c>
       <c r="D41" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="E41" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="F41" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="G41" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="H41" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="I41" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="J41" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="K41" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="L41" t="n">
-        <v>59.82518816679257</v>
+        <v>48.64497218614719</v>
       </c>
       <c r="M41" t="n">
-        <v>115.1774650687782</v>
+        <v>95.4008192388518</v>
       </c>
       <c r="N41" t="n">
-        <v>170.5297419707639</v>
+        <v>142.1566662915564</v>
       </c>
       <c r="O41" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="P41" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="Q41" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="R41" t="n">
-        <v>167.1694109069253</v>
+        <v>188.912513344261</v>
       </c>
       <c r="S41" t="n">
-        <v>167.1694109069253</v>
+        <v>188.912513344261</v>
       </c>
       <c r="T41" t="n">
-        <v>167.1694109069253</v>
+        <v>146.8937906792042</v>
       </c>
       <c r="U41" t="n">
-        <v>167.1694109069253</v>
+        <v>99.18861054176453</v>
       </c>
       <c r="V41" t="n">
-        <v>110.6932585735046</v>
+        <v>99.18861054176453</v>
       </c>
       <c r="W41" t="n">
-        <v>54.21710624008389</v>
+        <v>99.18861054176453</v>
       </c>
       <c r="X41" t="n">
-        <v>4.472911264806921</v>
+        <v>99.18861054176453</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.472911264806921</v>
+        <v>51.48343040432488</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>60.94906359822765</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="C42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="D42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="E42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="F42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="G42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="H42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="I42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="J42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="K42" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="L42" t="n">
-        <v>22.52605897905943</v>
+        <v>50.53409731958983</v>
       </c>
       <c r="M42" t="n">
-        <v>77.87833588104507</v>
+        <v>97.28994437229443</v>
       </c>
       <c r="N42" t="n">
-        <v>133.2306127830307</v>
+        <v>144.045791424999</v>
       </c>
       <c r="O42" t="n">
-        <v>188.5828896850164</v>
+        <v>153.8498397889313</v>
       </c>
       <c r="P42" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="Q42" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="R42" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="S42" t="n">
-        <v>223.6455632403461</v>
+        <v>141.2073332068214</v>
       </c>
       <c r="T42" t="n">
-        <v>167.1694109069253</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="U42" t="n">
-        <v>167.1694109069253</v>
+        <v>45.79697293194207</v>
       </c>
       <c r="V42" t="n">
-        <v>167.1694109069253</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="W42" t="n">
-        <v>167.1694109069253</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="X42" t="n">
-        <v>117.4252159316484</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="Y42" t="n">
-        <v>60.94906359822765</v>
+        <v>3.77825026688522</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.472911264806921</v>
+        <v>141.2073332068214</v>
       </c>
       <c r="C43" t="n">
-        <v>4.472911264806921</v>
+        <v>141.2073332068214</v>
       </c>
       <c r="D43" t="n">
-        <v>4.472911264806921</v>
+        <v>141.2073332068214</v>
       </c>
       <c r="E43" t="n">
-        <v>4.472911264806921</v>
+        <v>141.2073332068214</v>
       </c>
       <c r="F43" t="n">
-        <v>4.472911264806921</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="G43" t="n">
-        <v>4.472911264806921</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="H43" t="n">
-        <v>4.472911264806921</v>
+        <v>51.48343040432488</v>
       </c>
       <c r="I43" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="J43" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="K43" t="n">
-        <v>4.472911264806921</v>
+        <v>16.85732551813254</v>
       </c>
       <c r="L43" t="n">
-        <v>59.82518816679257</v>
+        <v>63.61317257083714</v>
       </c>
       <c r="M43" t="n">
-        <v>115.1774650687782</v>
+        <v>70.59876326460054</v>
       </c>
       <c r="N43" t="n">
-        <v>143.4912303641092</v>
+        <v>117.3546103173051</v>
       </c>
       <c r="O43" t="n">
-        <v>198.8435072660948</v>
+        <v>164.1104573700098</v>
       </c>
       <c r="P43" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="Q43" t="n">
-        <v>167.1694109069253</v>
+        <v>188.912513344261</v>
       </c>
       <c r="R43" t="n">
-        <v>110.6932585735046</v>
+        <v>188.912513344261</v>
       </c>
       <c r="S43" t="n">
-        <v>54.21710624008389</v>
+        <v>188.912513344261</v>
       </c>
       <c r="T43" t="n">
-        <v>4.472911264806921</v>
+        <v>188.912513344261</v>
       </c>
       <c r="U43" t="n">
-        <v>4.472911264806921</v>
+        <v>188.912513344261</v>
       </c>
       <c r="V43" t="n">
-        <v>4.472911264806921</v>
+        <v>188.912513344261</v>
       </c>
       <c r="W43" t="n">
-        <v>4.472911264806921</v>
+        <v>188.912513344261</v>
       </c>
       <c r="X43" t="n">
-        <v>4.472911264806921</v>
+        <v>188.912513344261</v>
       </c>
       <c r="Y43" t="n">
-        <v>4.472911264806921</v>
+        <v>188.912513344261</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>110.6932585735046</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="C44" t="n">
-        <v>110.6932585735046</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="D44" t="n">
-        <v>110.6932585735046</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="E44" t="n">
-        <v>60.94906359822765</v>
+        <v>51.48343040432488</v>
       </c>
       <c r="F44" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="G44" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="H44" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="I44" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="J44" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="K44" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="L44" t="n">
-        <v>57.58873253438912</v>
+        <v>48.64497218614719</v>
       </c>
       <c r="M44" t="n">
-        <v>112.9410094363748</v>
+        <v>95.4008192388518</v>
       </c>
       <c r="N44" t="n">
-        <v>168.2932863383604</v>
+        <v>142.1566662915564</v>
       </c>
       <c r="O44" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="P44" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="Q44" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="R44" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="S44" t="n">
-        <v>223.6455632403461</v>
+        <v>141.2073332068214</v>
       </c>
       <c r="T44" t="n">
-        <v>223.6455632403461</v>
+        <v>141.2073332068214</v>
       </c>
       <c r="U44" t="n">
-        <v>223.6455632403461</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="V44" t="n">
-        <v>223.6455632403461</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="W44" t="n">
-        <v>223.6455632403461</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="X44" t="n">
-        <v>223.6455632403461</v>
+        <v>93.50215306938172</v>
       </c>
       <c r="Y44" t="n">
-        <v>167.1694109069253</v>
+        <v>93.50215306938172</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.6932585735046</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="C45" t="n">
-        <v>54.21710624008389</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="D45" t="n">
-        <v>54.21710624008389</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="E45" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="F45" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="G45" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="H45" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="I45" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="J45" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="K45" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="L45" t="n">
-        <v>59.82518816679257</v>
+        <v>50.53409731958983</v>
       </c>
       <c r="M45" t="n">
-        <v>115.1774650687782</v>
+        <v>60.33814568352211</v>
       </c>
       <c r="N45" t="n">
-        <v>170.5297419707639</v>
+        <v>107.0939927362267</v>
       </c>
       <c r="O45" t="n">
-        <v>223.6455632403461</v>
+        <v>153.8498397889313</v>
       </c>
       <c r="P45" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="Q45" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="R45" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="S45" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="T45" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="U45" t="n">
-        <v>223.6455632403461</v>
+        <v>146.8937906792042</v>
       </c>
       <c r="V45" t="n">
-        <v>223.6455632403461</v>
+        <v>99.18861054176453</v>
       </c>
       <c r="W45" t="n">
-        <v>167.1694109069253</v>
+        <v>51.48343040432488</v>
       </c>
       <c r="X45" t="n">
-        <v>167.1694109069253</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="Y45" t="n">
-        <v>167.1694109069253</v>
+        <v>3.77825026688522</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.9013682650691</v>
+        <v>51.48343040432488</v>
       </c>
       <c r="C46" t="n">
-        <v>173.9013682650691</v>
+        <v>51.48343040432488</v>
       </c>
       <c r="D46" t="n">
-        <v>173.9013682650691</v>
+        <v>51.48343040432488</v>
       </c>
       <c r="E46" t="n">
-        <v>117.4252159316484</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="F46" t="n">
-        <v>60.94906359822765</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="G46" t="n">
-        <v>60.94906359822765</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="H46" t="n">
-        <v>60.94906359822765</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="I46" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="J46" t="n">
-        <v>4.472911264806921</v>
+        <v>3.77825026688522</v>
       </c>
       <c r="K46" t="n">
-        <v>4.472911264806921</v>
+        <v>16.85732551813254</v>
       </c>
       <c r="L46" t="n">
-        <v>59.82518816679257</v>
+        <v>63.61317257083714</v>
       </c>
       <c r="M46" t="n">
-        <v>115.1774650687782</v>
+        <v>70.59876326460054</v>
       </c>
       <c r="N46" t="n">
-        <v>170.5297419707639</v>
+        <v>117.3546103173051</v>
       </c>
       <c r="O46" t="n">
-        <v>198.8435072660948</v>
+        <v>164.1104573700098</v>
       </c>
       <c r="P46" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="Q46" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="R46" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="S46" t="n">
-        <v>223.6455632403461</v>
+        <v>188.912513344261</v>
       </c>
       <c r="T46" t="n">
-        <v>173.9013682650691</v>
+        <v>188.912513344261</v>
       </c>
       <c r="U46" t="n">
-        <v>173.9013682650691</v>
+        <v>188.912513344261</v>
       </c>
       <c r="V46" t="n">
-        <v>173.9013682650691</v>
+        <v>146.8937906792042</v>
       </c>
       <c r="W46" t="n">
-        <v>173.9013682650691</v>
+        <v>99.18861054176453</v>
       </c>
       <c r="X46" t="n">
-        <v>173.9013682650691</v>
+        <v>99.18861054176453</v>
       </c>
       <c r="Y46" t="n">
-        <v>173.9013682650691</v>
+        <v>99.18861054176453</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>104.889258789408</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K2" t="n">
-        <v>94.6755543817487</v>
+        <v>105.8056161847214</v>
       </c>
       <c r="L2" t="n">
-        <v>71.97849854454964</v>
+        <v>85.7863243985249</v>
       </c>
       <c r="M2" t="n">
-        <v>41.06296488573625</v>
+        <v>56.42683163149823</v>
       </c>
       <c r="N2" t="n">
-        <v>36.04170333287215</v>
+        <v>51.65417350500871</v>
       </c>
       <c r="O2" t="n">
-        <v>50.46651067918273</v>
+        <v>65.2089235451997</v>
       </c>
       <c r="P2" t="n">
-        <v>85.58838417758693</v>
+        <v>98.17069248095629</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.6377068975464</v>
+        <v>133.0864964302902</v>
       </c>
       <c r="R2" t="n">
         <v>42.58424007769262</v>
@@ -8060,10 +8060,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>50.09627633166346</v>
+        <v>57.65595408036968</v>
       </c>
       <c r="L3" t="n">
-        <v>10.27628214666007</v>
+        <v>20.44120180197424</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11.13860007154486</v>
       </c>
       <c r="P3" t="n">
-        <v>23.82458668363597</v>
+        <v>32.7642952373794</v>
       </c>
       <c r="Q3" t="n">
-        <v>77.442690741435</v>
+        <v>83.41864916277152</v>
       </c>
       <c r="R3" t="n">
         <v>29.49804203773589</v>
@@ -8142,16 +8142,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L4" t="n">
-        <v>73.42283224274789</v>
+        <v>79.2580209984983</v>
       </c>
       <c r="M4" t="n">
-        <v>73.3988241034014</v>
+        <v>79.55121249250524</v>
       </c>
       <c r="N4" t="n">
-        <v>61.97055239817956</v>
+        <v>67.97665074265473</v>
       </c>
       <c r="O4" t="n">
-        <v>82.27212675770768</v>
+        <v>87.81973069401728</v>
       </c>
       <c r="P4" t="n">
         <v>87.48425302749862</v>
@@ -8221,19 +8221,19 @@
         <v>94.6755543817487</v>
       </c>
       <c r="L5" t="n">
-        <v>71.97849854454964</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M5" t="n">
-        <v>41.06296488573625</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N5" t="n">
         <v>36.04170333287215</v>
       </c>
       <c r="O5" t="n">
-        <v>50.46651067918273</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P5" t="n">
-        <v>85.58838417758693</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q5" t="n">
         <v>123.6377068975464</v>
@@ -8297,7 +8297,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>50.09627633166346</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L6" t="n">
         <v>10.27628214666007</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>23.82458668363597</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q6" t="n">
         <v>77.442690741435</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>97.38162427947184</v>
+        <v>104.889258789408</v>
       </c>
       <c r="K8" t="n">
-        <v>83.42355640483248</v>
+        <v>94.6755543817487</v>
       </c>
       <c r="L8" t="n">
-        <v>58.01940008446331</v>
+        <v>71.97849854454961</v>
       </c>
       <c r="M8" t="n">
-        <v>25.53077821856496</v>
+        <v>41.06296488573622</v>
       </c>
       <c r="N8" t="n">
-        <v>20.25818964702478</v>
+        <v>36.04170333287215</v>
       </c>
       <c r="O8" t="n">
-        <v>35.5625862733917</v>
+        <v>50.4665106791827</v>
       </c>
       <c r="P8" t="n">
-        <v>72.86822951172195</v>
+        <v>85.5883841775869</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.085400487321</v>
+        <v>123.6377068975464</v>
       </c>
       <c r="R8" t="n">
         <v>42.58424007769262</v>
@@ -8531,13 +8531,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J9" t="n">
-        <v>81.18949827734528</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K9" t="n">
-        <v>42.4537780023314</v>
+        <v>50.09627633166345</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.27628214666007</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>14.78693852483815</v>
+        <v>23.82458668363594</v>
       </c>
       <c r="Q9" t="n">
-        <v>71.40126228781628</v>
+        <v>77.442690741435</v>
       </c>
       <c r="R9" t="n">
         <v>29.49804203773589</v>
@@ -8616,16 +8616,16 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L10" t="n">
-        <v>67.52371566667536</v>
+        <v>73.42283224274789</v>
       </c>
       <c r="M10" t="n">
-        <v>67.17903279110968</v>
+        <v>73.3988241034014</v>
       </c>
       <c r="N10" t="n">
-        <v>55.89865382137701</v>
+        <v>61.97055239817956</v>
       </c>
       <c r="O10" t="n">
-        <v>76.66374565676749</v>
+        <v>82.27212675770768</v>
       </c>
       <c r="P10" t="n">
         <v>87.48425302749862</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>79.46749020986016</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K11" t="n">
-        <v>56.57491319468369</v>
+        <v>64.9282684572851</v>
       </c>
       <c r="L11" t="n">
-        <v>24.71128406284004</v>
+        <v>35.07435992029687</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>11.0645038884594</v>
       </c>
       <c r="P11" t="n">
-        <v>42.51638489689407</v>
+        <v>51.95968297934965</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.29242921516936</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R11" t="n">
         <v>42.58424007769262</v>
@@ -8768,10 +8768,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>70.51996274958894</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K12" t="n">
-        <v>24.21784236678033</v>
+        <v>29.89154616318334</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.98567517487722</v>
+        <v>61.47076291397906</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -8853,19 +8853,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L13" t="n">
-        <v>53.44770209726538</v>
+        <v>57.82713911783085</v>
       </c>
       <c r="M13" t="n">
-        <v>52.33785008490104</v>
+        <v>56.95535238070698</v>
       </c>
       <c r="N13" t="n">
-        <v>41.4103612682476</v>
+        <v>45.91806968008439</v>
       </c>
       <c r="O13" t="n">
-        <v>63.28146248584989</v>
+        <v>67.44506079792963</v>
       </c>
       <c r="P13" t="n">
-        <v>77.6387332500001</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q13" t="n">
         <v>42.34223702878295</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>79.46749020986016</v>
+        <v>85.04107264134677</v>
       </c>
       <c r="K14" t="n">
-        <v>56.57491319468369</v>
+        <v>64.92826845728513</v>
       </c>
       <c r="L14" t="n">
-        <v>24.71128406284004</v>
+        <v>35.0743599202969</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>11.06450388845946</v>
       </c>
       <c r="P14" t="n">
-        <v>42.51638489689407</v>
+        <v>51.95968297934968</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.29242921516936</v>
+        <v>98.3839527992952</v>
       </c>
       <c r="R14" t="n">
         <v>42.58424007769262</v>
@@ -9005,10 +9005,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>70.51996274958894</v>
+        <v>73.8395502629202</v>
       </c>
       <c r="K15" t="n">
-        <v>24.21784236678033</v>
+        <v>29.89154616318336</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.98567517487722</v>
+        <v>61.47076291397909</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9090,19 +9090,19 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L16" t="n">
-        <v>53.44770209726538</v>
+        <v>57.82713911783087</v>
       </c>
       <c r="M16" t="n">
-        <v>52.33785008490104</v>
+        <v>56.955352380707</v>
       </c>
       <c r="N16" t="n">
-        <v>41.4103612682476</v>
+        <v>45.9180696800844</v>
       </c>
       <c r="O16" t="n">
-        <v>63.28146248584989</v>
+        <v>67.44506079792964</v>
       </c>
       <c r="P16" t="n">
-        <v>77.6387332500001</v>
+        <v>81.2014108898193</v>
       </c>
       <c r="Q16" t="n">
         <v>42.34223702878295</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>77.03015746813185</v>
+        <v>63.71704190901417</v>
       </c>
       <c r="K17" t="n">
-        <v>52.92198322816728</v>
+        <v>32.96907407424024</v>
       </c>
       <c r="L17" t="n">
-        <v>20.17950142521312</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>6.492642994993616</v>
       </c>
       <c r="P17" t="n">
-        <v>38.38682192923375</v>
+        <v>15.8304642945638</v>
       </c>
       <c r="Q17" t="n">
-        <v>92.83432150213942</v>
+        <v>115.3686835032233</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9242,10 +9242,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>69.06830406601642</v>
+        <v>61.13910364297801</v>
       </c>
       <c r="K18" t="n">
-        <v>21.73672645976168</v>
+        <v>8.184459992327248</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.02434216681378</v>
+        <v>44.31121607646934</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9324,22 +9324,22 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K19" t="n">
-        <v>69.07028093824279</v>
+        <v>60.89560738085457</v>
       </c>
       <c r="L19" t="n">
-        <v>51.53257024593394</v>
+        <v>85.18807183204875</v>
       </c>
       <c r="M19" t="n">
-        <v>54.96163416478507</v>
+        <v>83.40546852265163</v>
       </c>
       <c r="N19" t="n">
-        <v>44.2776539821237</v>
+        <v>72.78824745828553</v>
       </c>
       <c r="O19" t="n">
-        <v>66.29923486396476</v>
+        <v>73.93596772548763</v>
       </c>
       <c r="P19" t="n">
-        <v>80.91928879274671</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q19" t="n">
         <v>42.34223702878295</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>77.03015746813185</v>
+        <v>107.8333112069855</v>
       </c>
       <c r="K20" t="n">
-        <v>52.92198322816728</v>
+        <v>32.96907407424024</v>
       </c>
       <c r="L20" t="n">
-        <v>24.82252352102646</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>38.38682192923375</v>
+        <v>15.8304642945638</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.19129940632607</v>
+        <v>77.74505720024553</v>
       </c>
       <c r="R20" t="n">
         <v>42.58424007769262</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>69.06830406601642</v>
+        <v>61.13910364297801</v>
       </c>
       <c r="K21" t="n">
-        <v>21.73672645976168</v>
+        <v>8.184459992327248</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.02434216681378</v>
+        <v>44.31121607646934</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9561,22 +9561,22 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K22" t="n">
-        <v>69.16996059133484</v>
+        <v>60.89560738085457</v>
       </c>
       <c r="L22" t="n">
-        <v>51.53257024593394</v>
+        <v>85.18807183204875</v>
       </c>
       <c r="M22" t="n">
-        <v>54.86195451169302</v>
+        <v>81.62299299546089</v>
       </c>
       <c r="N22" t="n">
-        <v>44.2776539821237</v>
+        <v>72.78824745828553</v>
       </c>
       <c r="O22" t="n">
-        <v>66.29923486396476</v>
+        <v>95.63177321659325</v>
       </c>
       <c r="P22" t="n">
-        <v>80.91928879274671</v>
+        <v>67.57092306358375</v>
       </c>
       <c r="Q22" t="n">
         <v>42.34223702878295</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.67700949608485</v>
+        <v>107.9713130338629</v>
       </c>
       <c r="K23" t="n">
         <v>20.91914965065629</v>
       </c>
       <c r="L23" t="n">
-        <v>41.22706506128031</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.06723847649777</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>2.208270023428668</v>
@@ -9801,7 +9801,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L25" t="n">
-        <v>95.50426339224657</v>
+        <v>55.39427043783796</v>
       </c>
       <c r="M25" t="n">
         <v>93.37824495391669</v>
@@ -9810,10 +9810,10 @@
         <v>82.91940432021698</v>
       </c>
       <c r="O25" t="n">
-        <v>90.5935886428562</v>
+        <v>105.6509998050918</v>
       </c>
       <c r="P25" t="n">
-        <v>62.43167123532564</v>
+        <v>87.48425302749862</v>
       </c>
       <c r="Q25" t="n">
         <v>42.34223702878295</v>
@@ -9892,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.208270023428668</v>
+        <v>54.5025735612067</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.3170171556078</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R26" t="n">
         <v>42.58424007769262</v>
@@ -10038,7 +10038,7 @@
         <v>69.16996059133484</v>
       </c>
       <c r="L28" t="n">
-        <v>55.39427043783795</v>
+        <v>95.50426339224657</v>
       </c>
       <c r="M28" t="n">
         <v>93.37824495391669</v>
@@ -10047,7 +10047,7 @@
         <v>82.91940432021698</v>
       </c>
       <c r="O28" t="n">
-        <v>105.6509998050918</v>
+        <v>65.54100685068322</v>
       </c>
       <c r="P28" t="n">
         <v>87.48425302749862</v>
@@ -10117,7 +10117,7 @@
         <v>20.91914965065629</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>38.7725233007514</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>13.5217802370268</v>
       </c>
       <c r="P29" t="n">
         <v>2.208270023428668</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.3170171556078</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10272,19 +10272,19 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K31" t="n">
-        <v>69.16996059133484</v>
+        <v>55.9587734688628</v>
       </c>
       <c r="L31" t="n">
-        <v>95.50426339224657</v>
+        <v>95.50426339224663</v>
       </c>
       <c r="M31" t="n">
-        <v>93.37824495391669</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N31" t="n">
-        <v>82.91940432021698</v>
+        <v>82.91940432021704</v>
       </c>
       <c r="O31" t="n">
-        <v>65.54100685068322</v>
+        <v>78.7521939731553</v>
       </c>
       <c r="P31" t="n">
         <v>87.48425302749862</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>107.9713130338629</v>
+        <v>55.67700949608485</v>
       </c>
       <c r="K32" t="n">
         <v>20.91914965065629</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>38.7725233007514</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>13.5217802370268</v>
       </c>
       <c r="P32" t="n">
         <v>2.208270023428668</v>
@@ -10509,19 +10509,19 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K34" t="n">
-        <v>55.9587734688628</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L34" t="n">
-        <v>68.60545756030999</v>
+        <v>95.50426339224663</v>
       </c>
       <c r="M34" t="n">
-        <v>93.37824495391669</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N34" t="n">
-        <v>82.91940432021698</v>
+        <v>82.91940432021704</v>
       </c>
       <c r="O34" t="n">
-        <v>105.6509998050918</v>
+        <v>65.54100685068327</v>
       </c>
       <c r="P34" t="n">
         <v>87.48425302749862</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>55.67700949608485</v>
+        <v>107.9713130338629</v>
       </c>
       <c r="K35" t="n">
         <v>20.91914965065629</v>
@@ -10606,7 +10606,7 @@
         <v>2.208270023428668</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.3170171556078</v>
+        <v>61.02271361782974</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10752,10 +10752,10 @@
         <v>95.50426339224657</v>
       </c>
       <c r="M37" t="n">
-        <v>53.26825199950808</v>
+        <v>93.37824495391669</v>
       </c>
       <c r="N37" t="n">
-        <v>82.91940432021698</v>
+        <v>42.80941136580837</v>
       </c>
       <c r="O37" t="n">
         <v>105.6509998050918</v>
@@ -10828,7 +10828,7 @@
         <v>20.91914965065629</v>
       </c>
       <c r="L38" t="n">
-        <v>41.22706506128031</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.06723847649778</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>2.208270023428668</v>
+        <v>54.50257356120685</v>
       </c>
       <c r="Q38" t="n">
         <v>61.02271361782974</v>
@@ -10983,16 +10983,16 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K40" t="n">
-        <v>55.9587734688628</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L40" t="n">
-        <v>95.50426339224657</v>
+        <v>55.39427043783807</v>
       </c>
       <c r="M40" t="n">
-        <v>93.37824495391669</v>
+        <v>93.37824495391675</v>
       </c>
       <c r="N40" t="n">
-        <v>56.0205984882804</v>
+        <v>82.91940432021704</v>
       </c>
       <c r="O40" t="n">
         <v>105.6509998050918</v>
@@ -11065,7 +11065,7 @@
         <v>20.91914965065629</v>
       </c>
       <c r="L41" t="n">
-        <v>36.38854729827483</v>
+        <v>25.79707761875596</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>6.42421638068447</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>2.208270023428668</v>
@@ -11220,19 +11220,19 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K43" t="n">
-        <v>55.9587734688628</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L43" t="n">
-        <v>90.66574562924109</v>
+        <v>81.98248315521982</v>
       </c>
       <c r="M43" t="n">
-        <v>88.53972719091121</v>
+        <v>39.68448859674731</v>
       </c>
       <c r="N43" t="n">
-        <v>50.76925867170169</v>
+        <v>69.39762408319024</v>
       </c>
       <c r="O43" t="n">
-        <v>101.4207997628517</v>
+        <v>92.73753728883047</v>
       </c>
       <c r="P43" t="n">
         <v>87.48425302749862</v>
@@ -11302,7 +11302,7 @@
         <v>20.91914965065629</v>
       </c>
       <c r="L44" t="n">
-        <v>34.12950120493801</v>
+        <v>25.79707761875596</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>8.683262474021262</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>2.208270023428668</v>
@@ -11457,19 +11457,19 @@
         <v>21.79628437712472</v>
       </c>
       <c r="K46" t="n">
-        <v>55.9587734688628</v>
+        <v>69.16996059133484</v>
       </c>
       <c r="L46" t="n">
-        <v>90.66574562924109</v>
+        <v>81.98248315521982</v>
       </c>
       <c r="M46" t="n">
-        <v>88.53972719091121</v>
+        <v>39.68448859674731</v>
       </c>
       <c r="N46" t="n">
-        <v>78.0808865572115</v>
+        <v>69.39762408319024</v>
       </c>
       <c r="O46" t="n">
-        <v>74.10917187734192</v>
+        <v>92.73753728883047</v>
       </c>
       <c r="P46" t="n">
         <v>87.48425302749862</v>
@@ -22561,16 +22561,16 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G2" t="n">
-        <v>417.8783123837688</v>
+        <v>417.9658102901039</v>
       </c>
       <c r="H2" t="n">
-        <v>337.191226455099</v>
+        <v>338.0873143883533</v>
       </c>
       <c r="I2" t="n">
-        <v>204.0047442482169</v>
+        <v>207.3780072822006</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.740927585712328</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5867032943157</v>
+        <v>140.0829936531375</v>
       </c>
       <c r="S2" t="n">
-        <v>205.6441716172273</v>
+        <v>207.6380301578382</v>
       </c>
       <c r="T2" t="n">
-        <v>218.2640917157734</v>
+        <v>218.6471138007553</v>
       </c>
       <c r="U2" t="n">
-        <v>250.0737526463394</v>
+        <v>250.0807524788462</v>
       </c>
       <c r="V2" t="n">
         <v>320.879783609152</v>
@@ -22640,16 +22640,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G3" t="n">
-        <v>148.2310337884838</v>
+        <v>148.2778492956328</v>
       </c>
       <c r="H3" t="n">
-        <v>120.7755129590769</v>
+        <v>121.2276521991739</v>
       </c>
       <c r="I3" t="n">
-        <v>89.68126172020311</v>
+        <v>91.29311141809657</v>
       </c>
       <c r="J3" t="n">
-        <v>3.954003058433003</v>
+        <v>8.377041828155711</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>102.8333681880216</v>
+        <v>105.7400362546942</v>
       </c>
       <c r="S3" t="n">
-        <v>182.0514410751984</v>
+        <v>182.9210185873741</v>
       </c>
       <c r="T3" t="n">
-        <v>212.9008733398524</v>
+        <v>213.0895726866503</v>
       </c>
       <c r="U3" t="n">
-        <v>237.1942819517476</v>
+        <v>237.1973619193232</v>
       </c>
       <c r="V3" t="n">
         <v>240.6489209154022</v>
@@ -22719,19 +22719,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G4" t="n">
-        <v>168.2702145158476</v>
+        <v>168.3094630644065</v>
       </c>
       <c r="H4" t="n">
-        <v>161.9963241796108</v>
+        <v>162.3452794567983</v>
       </c>
       <c r="I4" t="n">
-        <v>151.9048422443612</v>
+        <v>153.0851531410239</v>
       </c>
       <c r="J4" t="n">
-        <v>89.79898650365655</v>
+        <v>92.57385888677204</v>
       </c>
       <c r="K4" t="n">
-        <v>17.00668871668184</v>
+        <v>21.56665644925431</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.404274245706759</v>
+        <v>11.15120779141444</v>
       </c>
       <c r="Q4" t="n">
-        <v>91.16342279524457</v>
+        <v>94.44995352957361</v>
       </c>
       <c r="R4" t="n">
-        <v>184.0703993891455</v>
+        <v>185.8351568543492</v>
       </c>
       <c r="S4" t="n">
-        <v>227.9345506528043</v>
+        <v>228.6185458126902</v>
       </c>
       <c r="T4" t="n">
-        <v>221.9218912383841</v>
+        <v>222.0895895822268</v>
       </c>
       <c r="U4" t="n">
-        <v>288.6330718552217</v>
+        <v>288.6352126851431</v>
       </c>
       <c r="V4" t="n">
         <v>245.1090151844499</v>
@@ -22965,7 +22965,7 @@
         <v>151.9048422443612</v>
       </c>
       <c r="J7" t="n">
-        <v>89.79898650365655</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K7" t="n">
         <v>17.00668871668184</v>
@@ -23035,13 +23035,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G8" t="n">
-        <v>417.7898558879744</v>
+        <v>417.8783123837688</v>
       </c>
       <c r="H8" t="n">
-        <v>336.2853213675438</v>
+        <v>337.191226455099</v>
       </c>
       <c r="I8" t="n">
-        <v>200.5945251941005</v>
+        <v>204.0047442482169</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>129.0301979403661</v>
+        <v>134.5867032943157</v>
       </c>
       <c r="S8" t="n">
-        <v>203.6284692193107</v>
+        <v>205.6441716172273</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8768734054331</v>
+        <v>218.2640917157734</v>
       </c>
       <c r="U8" t="n">
-        <v>250.0666761266758</v>
+        <v>250.0737526463394</v>
       </c>
       <c r="V8" t="n">
         <v>320.879783609152</v>
@@ -23114,16 +23114,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>148.1837053907575</v>
+        <v>148.2310337884838</v>
       </c>
       <c r="H9" t="n">
-        <v>120.3184202757733</v>
+        <v>120.7755129590769</v>
       </c>
       <c r="I9" t="n">
-        <v>88.05175328971565</v>
+        <v>89.68126172020311</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.954003058433003</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.89485591515788</v>
+        <v>102.8333681880216</v>
       </c>
       <c r="S9" t="n">
-        <v>181.1723368455023</v>
+        <v>182.0514410751984</v>
       </c>
       <c r="T9" t="n">
-        <v>212.7101066841048</v>
+        <v>212.9008733398524</v>
       </c>
       <c r="U9" t="n">
-        <v>237.1911682413709</v>
+        <v>237.1942819517476</v>
       </c>
       <c r="V9" t="n">
         <v>240.6489209154022</v>
@@ -23193,19 +23193,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G10" t="n">
-        <v>168.2305359770579</v>
+        <v>168.2702145158476</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6435458983708</v>
+        <v>161.9963241796108</v>
       </c>
       <c r="I10" t="n">
-        <v>150.711600368756</v>
+        <v>151.9048422443612</v>
       </c>
       <c r="J10" t="n">
-        <v>86.99371381121945</v>
+        <v>89.79898650365654</v>
       </c>
       <c r="K10" t="n">
-        <v>12.39676393728799</v>
+        <v>17.00668871668184</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.605335336077985</v>
+        <v>6.404274245706759</v>
       </c>
       <c r="Q10" t="n">
-        <v>87.84088624258442</v>
+        <v>91.16342279524457</v>
       </c>
       <c r="R10" t="n">
-        <v>182.2863079995616</v>
+        <v>184.0703993891455</v>
       </c>
       <c r="S10" t="n">
-        <v>227.2430619358953</v>
+        <v>227.9345506528043</v>
       </c>
       <c r="T10" t="n">
-        <v>221.7523556635551</v>
+        <v>221.9218912383841</v>
       </c>
       <c r="U10" t="n">
-        <v>288.6309075712877</v>
+        <v>288.6330718552217</v>
       </c>
       <c r="V10" t="n">
         <v>245.1090151844499</v>
@@ -23272,13 +23272,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.5787878714249</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H11" t="n">
-        <v>334.1237210430571</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I11" t="n">
-        <v>192.4573254860788</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>115.7716966457933</v>
+        <v>119.8967829935966</v>
       </c>
       <c r="S11" t="n">
-        <v>198.8187567921908</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T11" t="n">
-        <v>216.952923162988</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0497906853519</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,13 +23351,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.0707740458651</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H12" t="n">
-        <v>119.227741234312</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I12" t="n">
-        <v>84.16354689758495</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>92.88320627350156</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S12" t="n">
-        <v>179.0746866454165</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T12" t="n">
-        <v>212.2549141141216</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U12" t="n">
-        <v>237.183738547628</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,19 +23430,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.1358581311098</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H13" t="n">
-        <v>160.8017737771232</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I13" t="n">
-        <v>147.8643793287897</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J13" t="n">
-        <v>80.29999010268935</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K13" t="n">
-        <v>1.396919653500561</v>
+        <v>4.819275353807939</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.91290770596737</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R13" t="n">
-        <v>178.0292477626592</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S13" t="n">
-        <v>225.5930852933272</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T13" t="n">
-        <v>221.3478230490496</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6257433251451</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,13 +23509,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.5787878714249</v>
+        <v>417.6444569673644</v>
       </c>
       <c r="H14" t="n">
-        <v>334.1237210430571</v>
+        <v>334.7962546718464</v>
       </c>
       <c r="I14" t="n">
-        <v>192.4573254860788</v>
+        <v>194.9890333072825</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>115.7716966457933</v>
+        <v>119.8967829935967</v>
       </c>
       <c r="S14" t="n">
-        <v>198.8187567921908</v>
+        <v>200.3151913159098</v>
       </c>
       <c r="T14" t="n">
-        <v>216.952923162988</v>
+        <v>217.2403896304627</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0497906853519</v>
+        <v>250.055044213027</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,13 +23588,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.0707740458651</v>
+        <v>148.1059101097915</v>
       </c>
       <c r="H15" t="n">
-        <v>119.227741234312</v>
+        <v>119.5670816411805</v>
       </c>
       <c r="I15" t="n">
-        <v>84.16354689758495</v>
+        <v>85.37327541435067</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>92.88320627350156</v>
+        <v>95.06472434781182</v>
       </c>
       <c r="S15" t="n">
-        <v>179.0746866454165</v>
+        <v>179.7273236222959</v>
       </c>
       <c r="T15" t="n">
-        <v>212.2549141141216</v>
+        <v>212.3965371086322</v>
       </c>
       <c r="U15" t="n">
-        <v>237.183738547628</v>
+        <v>237.186050130781</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,19 +23667,19 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1358581311098</v>
+        <v>168.1653150268088</v>
       </c>
       <c r="H16" t="n">
-        <v>160.8017737771232</v>
+        <v>161.0636723588838</v>
       </c>
       <c r="I16" t="n">
-        <v>147.8643793287897</v>
+        <v>148.7502285194483</v>
       </c>
       <c r="J16" t="n">
-        <v>80.29999010268935</v>
+        <v>82.38259262861192</v>
       </c>
       <c r="K16" t="n">
-        <v>1.396919653500561</v>
+        <v>4.819275353807953</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.91290770596737</v>
+        <v>82.37952103582114</v>
       </c>
       <c r="R16" t="n">
-        <v>178.0292477626592</v>
+        <v>179.3537369092726</v>
       </c>
       <c r="S16" t="n">
-        <v>225.5930852933272</v>
+        <v>226.1064386483733</v>
       </c>
       <c r="T16" t="n">
-        <v>221.3478230490496</v>
+        <v>221.4736843306728</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6257433251451</v>
+        <v>288.6273500649105</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23734,25 +23734,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>345.9437309355236</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>332.9336418792218</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>366.6403942986307</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>398.360731877008</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.5500707151578</v>
+        <v>378.5356028485037</v>
       </c>
       <c r="H17" t="n">
-        <v>333.8296214664362</v>
+        <v>332.2232008155304</v>
       </c>
       <c r="I17" t="n">
-        <v>191.3502073190898</v>
+        <v>185.3029443244315</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.9677925784275</v>
+        <v>104.1145694647979</v>
       </c>
       <c r="S17" t="n">
-        <v>198.1643645937532</v>
+        <v>150.4736966059232</v>
       </c>
       <c r="T17" t="n">
-        <v>216.8272138114286</v>
+        <v>172.0242991919057</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0474933128505</v>
+        <v>250.0349446833304</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>293.7801945277955</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23825,13 +23825,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.0554090126793</v>
+        <v>147.9714826538077</v>
       </c>
       <c r="H18" t="n">
-        <v>119.0793473611758</v>
+        <v>118.2687954215476</v>
       </c>
       <c r="I18" t="n">
-        <v>83.63453150061898</v>
+        <v>80.74496168859301</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>87.09070864305016</v>
+        <v>86.71843019471299</v>
       </c>
       <c r="S18" t="n">
-        <v>173.9507701300351</v>
+        <v>177.2303925868075</v>
       </c>
       <c r="T18" t="n">
-        <v>212.1929822479036</v>
+        <v>211.8547001259607</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1827276901815</v>
+        <v>193.0609369212318</v>
       </c>
       <c r="V18" t="n">
-        <v>236.387154469747</v>
+        <v>196.5326516174309</v>
       </c>
       <c r="W18" t="n">
-        <v>261.8660658140061</v>
+        <v>222.5883142790402</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>178.4553044418174</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -23904,16 +23904,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1229766034317</v>
+        <v>168.0526155634229</v>
       </c>
       <c r="H19" t="n">
-        <v>160.6872452855858</v>
+        <v>160.0616716753256</v>
       </c>
       <c r="I19" t="n">
-        <v>147.4769966600723</v>
+        <v>145.3610482932617</v>
       </c>
       <c r="J19" t="n">
-        <v>79.38926609585282</v>
+        <v>74.41474056722933</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.83425542012819</v>
+        <v>72.94247778811702</v>
       </c>
       <c r="R19" t="n">
-        <v>177.4500474363362</v>
+        <v>174.2863592192124</v>
       </c>
       <c r="S19" t="n">
-        <v>225.3685953973383</v>
+        <v>224.14239436373</v>
       </c>
       <c r="T19" t="n">
-        <v>217.0310173487701</v>
+        <v>220.9921502598422</v>
       </c>
       <c r="U19" t="n">
-        <v>283.7865229333572</v>
+        <v>249.7635928237999</v>
       </c>
       <c r="V19" t="n">
-        <v>240.2704974214444</v>
+        <v>200.9927458864785</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>246.194437791364</v>
       </c>
       <c r="X19" t="n">
-        <v>217.080937645237</v>
+        <v>177.8031861102712</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23977,19 +23977,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>366.6403942986307</v>
+        <v>327.3626427636648</v>
       </c>
       <c r="F20" t="n">
-        <v>398.9374831943583</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.5500707151578</v>
+        <v>417.3932128461569</v>
       </c>
       <c r="H20" t="n">
-        <v>333.8296214664362</v>
+        <v>332.2232008155304</v>
       </c>
       <c r="I20" t="n">
-        <v>191.3502073190898</v>
+        <v>185.3029443244315</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>113.9677925784275</v>
+        <v>104.1145694647979</v>
       </c>
       <c r="S20" t="n">
-        <v>193.3258468307478</v>
+        <v>155.7323559062414</v>
       </c>
       <c r="T20" t="n">
-        <v>216.8272138114286</v>
+        <v>172.0242991919057</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0474933128505</v>
+        <v>205.9186753853591</v>
       </c>
       <c r="V20" t="n">
-        <v>316.0412658461465</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>132.6342250996944</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>143.4018822263945</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>166.9890540767942</v>
+        <v>132.9699618421465</v>
       </c>
       <c r="F21" t="n">
-        <v>153.9849213569229</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>143.2168912496738</v>
+        <v>147.9714826538077</v>
       </c>
       <c r="H21" t="n">
-        <v>119.0793473611758</v>
+        <v>118.2687954215476</v>
       </c>
       <c r="I21" t="n">
-        <v>83.63453150061898</v>
+        <v>80.74496168859301</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>87.66745996040041</v>
+        <v>86.71843019471299</v>
       </c>
       <c r="S21" t="n">
-        <v>178.7892878930406</v>
+        <v>177.2303925868075</v>
       </c>
       <c r="T21" t="n">
-        <v>212.1929822479036</v>
+        <v>211.8547001259607</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1827276901815</v>
+        <v>237.1772062192031</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24116,7 +24116,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>179.2680168360542</v>
       </c>
     </row>
     <row r="22">
@@ -24141,16 +24141,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1229766034317</v>
+        <v>168.0526155634229</v>
       </c>
       <c r="H22" t="n">
-        <v>160.6872452855858</v>
+        <v>160.0616716753256</v>
       </c>
       <c r="I22" t="n">
-        <v>143.2152302144171</v>
+        <v>145.3610482932617</v>
       </c>
       <c r="J22" t="n">
-        <v>74.55074833284733</v>
+        <v>74.41474056722933</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.83425542012819</v>
+        <v>34.08486779046384</v>
       </c>
       <c r="R22" t="n">
-        <v>177.4500474363362</v>
+        <v>174.2863592192124</v>
       </c>
       <c r="S22" t="n">
-        <v>225.3685953973383</v>
+        <v>180.0261250657587</v>
       </c>
       <c r="T22" t="n">
-        <v>216.4542660314198</v>
+        <v>220.9921502598422</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6250406963626</v>
+        <v>244.5049335234817</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>246.194437791364</v>
       </c>
       <c r="X22" t="n">
-        <v>217.080937645237</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
         <v>217.1412728141684</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.3373318047413</v>
+        <v>320.5787209066539</v>
       </c>
       <c r="C23" t="n">
-        <v>289.4555888080868</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
         <v>337.7721596422273</v>
@@ -24226,7 +24226,7 @@
         <v>331.2530541924707</v>
       </c>
       <c r="I23" t="n">
-        <v>120.9009837376196</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>44.65550950190372</v>
+        <v>37.41412039999113</v>
       </c>
       <c r="S23" t="n">
         <v>192.4313215808898</v>
@@ -24271,10 +24271,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>299.0328057216141</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>321.5356588453579</v>
       </c>
     </row>
     <row r="24">
@@ -24287,7 +24287,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>126.7682429512739</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -24335,7 +24335,7 @@
         <v>83.57153567176478</v>
       </c>
       <c r="S24" t="n">
-        <v>176.2889473830292</v>
+        <v>122.7804279118498</v>
       </c>
       <c r="T24" t="n">
         <v>211.6504054052352</v>
@@ -24344,13 +24344,13 @@
         <v>237.1738717025428</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>179.8990123423102</v>
       </c>
       <c r="W24" t="n">
-        <v>213.1960641058322</v>
+        <v>205.9546750039196</v>
       </c>
       <c r="X24" t="n">
-        <v>156.5630058663786</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
         <v>162.6343775609336</v>
@@ -24369,13 +24369,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>84.43274167761871</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>78.17697364535465</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>168.0101232527563</v>
@@ -24408,10 +24408,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.634417637297602</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R25" t="n">
-        <v>118.8672309429695</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S25" t="n">
         <v>223.4018692769313</v>
@@ -24423,16 +24423,16 @@
         <v>288.6188850590531</v>
       </c>
       <c r="V25" t="n">
-        <v>245.1090151844499</v>
+        <v>184.3591066113579</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>229.5607985162433</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>161.1695468351505</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>163.632753342989</v>
       </c>
     </row>
     <row r="26">
@@ -24448,16 +24448,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>277.0222510691353</v>
+        <v>284.2636401710479</v>
       </c>
       <c r="E26" t="n">
-        <v>310.7290034885442</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>342.4493410669215</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>363.7899640574567</v>
+        <v>417.2984835286361</v>
       </c>
       <c r="H26" t="n">
         <v>331.2530541924707</v>
@@ -24499,13 +24499,13 @@
         <v>215.7258909024298</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0273663379288</v>
+        <v>189.2774577648368</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>260.12987503606</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>277.1465552526749</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.57153567176478</v>
+        <v>22.82162709867278</v>
       </c>
       <c r="S27" t="n">
-        <v>176.2889473830292</v>
+        <v>115.5390388099372</v>
       </c>
       <c r="T27" t="n">
-        <v>211.6504054052352</v>
+        <v>150.9004968321432</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1738717025428</v>
+        <v>183.6653522313634</v>
       </c>
       <c r="V27" t="n">
-        <v>187.1404014442228</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>205.9546750039196</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>156.5630058663786</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>162.6343775609336</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24603,10 +24603,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>105.7072723988803</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>91.67413077953128</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.634417637297602</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R28" t="n">
         <v>172.375750414149</v>
       </c>
       <c r="S28" t="n">
-        <v>223.4018692769313</v>
+        <v>162.6519607038393</v>
       </c>
       <c r="T28" t="n">
         <v>220.8105922051758</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6188850590531</v>
+        <v>235.1103655878736</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>229.5607985162433</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
-        <v>221.9194554082425</v>
+        <v>161.1695468351505</v>
       </c>
       <c r="Y28" t="n">
-        <v>217.1412728141684</v>
+        <v>156.3913642410764</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>313.3373318047413</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
@@ -24691,13 +24691,13 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>342.4493410669215</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.2984835286361</v>
+        <v>356.548574955544</v>
       </c>
       <c r="H29" t="n">
-        <v>270.5031456193787</v>
+        <v>331.2530541924707</v>
       </c>
       <c r="I29" t="n">
         <v>181.6508923107116</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>98.16402897308313</v>
+        <v>37.41412039999108</v>
       </c>
       <c r="S29" t="n">
-        <v>192.4313215808898</v>
+        <v>131.6814130077977</v>
       </c>
       <c r="T29" t="n">
         <v>215.7258909024298</v>
@@ -24745,10 +24745,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>306.2741948235267</v>
       </c>
       <c r="Y29" t="n">
-        <v>328.7770479472705</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>98.42240650348649</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>98.07353054683628</v>
       </c>
       <c r="G30" t="n">
-        <v>87.17088942747807</v>
+        <v>147.9207980005701</v>
       </c>
       <c r="H30" t="n">
-        <v>57.02937980271301</v>
+        <v>117.779288375805</v>
       </c>
       <c r="I30" t="n">
-        <v>25.49137849848566</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>22.82162709867278</v>
+        <v>30.0630162005853</v>
       </c>
       <c r="S30" t="n">
         <v>176.2889473830292</v>
       </c>
       <c r="T30" t="n">
-        <v>211.6504054052352</v>
+        <v>150.9004968321432</v>
       </c>
       <c r="U30" t="n">
         <v>237.1738717025428</v>
@@ -24849,10 +24849,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>85.41836274726717</v>
       </c>
       <c r="G31" t="n">
-        <v>107.2602146796643</v>
+        <v>107.2602146796642</v>
       </c>
       <c r="H31" t="n">
         <v>159.6838764041262</v>
@@ -24885,10 +24885,10 @@
         <v>69.3843262103896</v>
       </c>
       <c r="R31" t="n">
-        <v>118.8672309429695</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S31" t="n">
-        <v>223.4018692769313</v>
+        <v>162.6519607038392</v>
       </c>
       <c r="T31" t="n">
         <v>220.8105922051758</v>
@@ -24897,16 +24897,16 @@
         <v>288.6188850590531</v>
       </c>
       <c r="V31" t="n">
-        <v>184.3591066113579</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>229.5607985162433</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y31" t="n">
-        <v>156.3913642410764</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>310.7290034885442</v>
+        <v>310.7290034885441</v>
       </c>
       <c r="F32" t="n">
-        <v>342.4493410669215</v>
+        <v>342.4493410669214</v>
       </c>
       <c r="G32" t="n">
-        <v>417.2984835286361</v>
+        <v>356.548574955544</v>
       </c>
       <c r="H32" t="n">
         <v>331.2530541924707</v>
       </c>
       <c r="I32" t="n">
-        <v>128.1423728395322</v>
+        <v>181.6508923107116</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>215.7258909024298</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0273663379288</v>
+        <v>196.5188468667493</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24982,7 +24982,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>299.0328057216141</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24998,7 +24998,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>126.7682429512739</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -25052,19 +25052,19 @@
         <v>211.6504054052352</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1738717025428</v>
+        <v>176.4239631294507</v>
       </c>
       <c r="V33" t="n">
-        <v>187.1404014442228</v>
+        <v>179.8990123423102</v>
       </c>
       <c r="W33" t="n">
-        <v>205.9546750039196</v>
+        <v>205.9546750039195</v>
       </c>
       <c r="X33" t="n">
-        <v>156.5630058663786</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>169.8757666628461</v>
       </c>
     </row>
     <row r="34">
@@ -25083,13 +25083,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>141.676141212225</v>
+        <v>88.16762174104551</v>
       </c>
       <c r="F34" t="n">
-        <v>138.9268822184467</v>
+        <v>78.17697364535459</v>
       </c>
       <c r="G34" t="n">
-        <v>168.0101232527563</v>
+        <v>107.2602146796642</v>
       </c>
       <c r="H34" t="n">
         <v>159.6838764041262</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.87580673921018</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R34" t="n">
         <v>172.375750414149</v>
@@ -25131,7 +25131,7 @@
         <v>220.8105922051758</v>
       </c>
       <c r="U34" t="n">
-        <v>227.8689764859611</v>
+        <v>288.6188850590531</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25140,7 +25140,7 @@
         <v>229.5607985162433</v>
       </c>
       <c r="X34" t="n">
-        <v>161.1695468351505</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25207,22 +25207,22 @@
         <v>192.4313215808898</v>
       </c>
       <c r="T35" t="n">
-        <v>215.7258909024298</v>
+        <v>162.2173714312504</v>
       </c>
       <c r="U35" t="n">
-        <v>196.5188468667493</v>
+        <v>189.2774577648368</v>
       </c>
       <c r="V35" t="n">
-        <v>260.12987503606</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>277.1465552526749</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>321.5356588453579</v>
       </c>
     </row>
     <row r="36">
@@ -25241,19 +25241,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>111.0776632667077</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>87.17088942747807</v>
+        <v>147.9207980005701</v>
       </c>
       <c r="H36" t="n">
         <v>117.779288375805</v>
       </c>
       <c r="I36" t="n">
-        <v>25.49137849848566</v>
+        <v>78.99989796966508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>83.57153567176478</v>
       </c>
       <c r="S36" t="n">
-        <v>115.5390388099372</v>
+        <v>176.2889473830292</v>
       </c>
       <c r="T36" t="n">
         <v>211.6504054052352</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1738717025428</v>
+        <v>176.4239631294508</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>179.8990123423102</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>205.9546750039196</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>163.8043949682912</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -25317,7 +25317,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>84.43274167761871</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.634417637297602</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R37" t="n">
-        <v>111.625841841057</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S37" t="n">
-        <v>169.8933498057518</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T37" t="n">
         <v>220.8105922051758</v>
@@ -25371,16 +25371,16 @@
         <v>288.6188850590531</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>191.6004957132705</v>
       </c>
       <c r="W37" t="n">
-        <v>290.3107070893353</v>
+        <v>229.5607985162433</v>
       </c>
       <c r="X37" t="n">
-        <v>221.9194554082425</v>
+        <v>161.1695468351505</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>156.3913642410764</v>
       </c>
     </row>
     <row r="38">
@@ -25396,16 +25396,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>277.0222510691352</v>
       </c>
       <c r="E38" t="n">
-        <v>317.9703925904568</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>342.4493410669215</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>356.5485749555441</v>
+        <v>363.7899640574566</v>
       </c>
       <c r="H38" t="n">
         <v>331.2530541924707</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>98.16402897308313</v>
+        <v>37.41412039999108</v>
       </c>
       <c r="S38" t="n">
-        <v>192.4313215808898</v>
+        <v>131.6814130077977</v>
       </c>
       <c r="T38" t="n">
         <v>215.7258909024298</v>
@@ -25456,7 +25456,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>299.0328057216141</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>116.0005858245737</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>126.7682429512739</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>111.0776632667077</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>105.3149196487489</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9207980005701</v>
+        <v>87.17088942747802</v>
       </c>
       <c r="H39" t="n">
         <v>117.779288375805</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.57153567176478</v>
+        <v>22.82162709867272</v>
       </c>
       <c r="S39" t="n">
         <v>176.2889473830292</v>
@@ -25526,13 +25526,13 @@
         <v>211.6504054052352</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1738717025428</v>
+        <v>176.4239631294507</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>213.1960641058322</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.3843262103896</v>
+        <v>8.634417637297545</v>
       </c>
       <c r="R40" t="n">
-        <v>118.8672309429695</v>
+        <v>111.6258418410569</v>
       </c>
       <c r="S40" t="n">
-        <v>162.6519607038393</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T40" t="n">
-        <v>160.0606836320838</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U40" t="n">
-        <v>227.8689764859611</v>
+        <v>235.1103655878736</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>290.3107070893353</v>
+        <v>229.5607985162433</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -25633,7 +25633,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>290.544031306162</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.25263816299662</v>
+        <v>98.16402897308313</v>
       </c>
       <c r="S41" t="n">
         <v>192.4313215808898</v>
       </c>
       <c r="T41" t="n">
-        <v>215.7258909024298</v>
+        <v>174.1273554640236</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0273663379288</v>
+        <v>202.7992380018635</v>
       </c>
       <c r="V41" t="n">
-        <v>264.9683927990655</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>281.9850730156804</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>310.5359612691819</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>335.0574390823846</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>131.6067607142794</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
@@ -25757,25 +25757,25 @@
         <v>83.57153567176478</v>
       </c>
       <c r="S42" t="n">
-        <v>176.2889473830292</v>
+        <v>129.0608190469639</v>
       </c>
       <c r="T42" t="n">
-        <v>155.7390145951487</v>
+        <v>164.42227706917</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1738717025428</v>
+        <v>189.9457433664775</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>199.050385476996</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>168.0661614139464</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>167.4728953239391</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>130.3887923289028</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -25797,16 +25797,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>91.6987538823814</v>
       </c>
       <c r="G43" t="n">
         <v>168.0101232527563</v>
       </c>
       <c r="H43" t="n">
-        <v>159.6838764041262</v>
+        <v>118.08534096572</v>
       </c>
       <c r="I43" t="n">
-        <v>144.0831886233971</v>
+        <v>96.85506028733187</v>
       </c>
       <c r="J43" t="n">
         <v>71.41053420310101</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.47293540030309</v>
+        <v>69.3843262103896</v>
       </c>
       <c r="R43" t="n">
-        <v>116.4643596040625</v>
+        <v>172.375750414149</v>
       </c>
       <c r="S43" t="n">
-        <v>167.4904784668447</v>
+        <v>223.4018692769313</v>
       </c>
       <c r="T43" t="n">
-        <v>171.5638391796516</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U43" t="n">
         <v>288.6188850590531</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>318.1758495677468</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,10 +25873,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>322.232159036112</v>
+        <v>329.8803766232299</v>
       </c>
       <c r="F44" t="n">
-        <v>347.287858829927</v>
+        <v>355.9711213039482</v>
       </c>
       <c r="G44" t="n">
         <v>417.2984835286361</v>
@@ -25915,13 +25915,13 @@
         <v>98.16402897308313</v>
       </c>
       <c r="S44" t="n">
-        <v>192.4313215808898</v>
+        <v>145.2031932448245</v>
       </c>
       <c r="T44" t="n">
         <v>215.7258909024298</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0273663379288</v>
+        <v>202.7992380018635</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25933,7 +25933,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>326.3741766083634</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.8391035875792</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>131.6067607142794</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>122.5808188142755</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -26000,16 +26000,16 @@
         <v>211.6504054052352</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1738717025428</v>
+        <v>195.5753362641365</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>193.420792579337</v>
       </c>
       <c r="W45" t="n">
-        <v>210.7931927669251</v>
+        <v>219.4764552409463</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>170.0847861034053</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.6169206649681</v>
+        <v>130.3887923289028</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -26031,10 +26031,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>85.76475040213847</v>
+        <v>94.44801287615974</v>
       </c>
       <c r="F46" t="n">
-        <v>83.01549140836013</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>168.0101232527563</v>
@@ -26043,7 +26043,7 @@
         <v>159.6838764041262</v>
       </c>
       <c r="I46" t="n">
-        <v>88.1717978133106</v>
+        <v>144.0831886233971</v>
       </c>
       <c r="J46" t="n">
         <v>71.41053420310101</v>
@@ -26076,16 +26076,16 @@
         <v>223.4018692769313</v>
       </c>
       <c r="T46" t="n">
-        <v>171.5638391796516</v>
+        <v>220.8105922051758</v>
       </c>
       <c r="U46" t="n">
         <v>288.6188850590531</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>203.5104797460436</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>243.0825787532701</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424447.5471237936</v>
+        <v>424496.9142323624</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>424122.545001036</v>
+        <v>424447.5471237936</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>423338.4524450488</v>
+        <v>423204.3635927004</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>423338.4524450488</v>
+        <v>423204.3635927004</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>427663.945171705</v>
+        <v>462316.4548749535</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>427663.945171705</v>
+        <v>462316.4548749536</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>476988.0877566424</v>
+        <v>476988.0877566425</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>472717.1054712445</v>
+        <v>465052.3490267074</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>472717.1054712447</v>
+        <v>465052.3490267074</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90922.86123361223</v>
+      </c>
+      <c r="C2" t="n">
         <v>91607.58867732956</v>
       </c>
-      <c r="C2" t="n">
-        <v>91607.58867732958</v>
-      </c>
       <c r="D2" t="n">
-        <v>92221.00202031925</v>
+        <v>91607.58867732956</v>
       </c>
       <c r="E2" t="n">
-        <v>93477.87557226446</v>
+        <v>93090.72327877764</v>
       </c>
       <c r="F2" t="n">
-        <v>93477.87557226449</v>
+        <v>93090.72327877762</v>
       </c>
       <c r="G2" t="n">
-        <v>94537.38394766538</v>
+        <v>102631.138098684</v>
       </c>
       <c r="H2" t="n">
-        <v>94537.38394766542</v>
+        <v>102631.138098684</v>
       </c>
       <c r="I2" t="n">
-        <v>106214.0918905575</v>
+        <v>106214.0918905574</v>
       </c>
       <c r="J2" t="n">
         <v>106214.0918905574</v>
@@ -26343,7 +26343,7 @@
         <v>106214.0918905575</v>
       </c>
       <c r="L2" t="n">
-        <v>106214.0918905574</v>
+        <v>106214.0918905575</v>
       </c>
       <c r="M2" t="n">
         <v>106214.0918905574</v>
@@ -26352,10 +26352,10 @@
         <v>106214.0918905575</v>
       </c>
       <c r="O2" t="n">
-        <v>105323.1080691473</v>
+        <v>103724.1377314616</v>
       </c>
       <c r="P2" t="n">
-        <v>105323.1080691473</v>
+        <v>103724.1377314616</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>327567.4262574749</v>
+        <v>306594.2889031769</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19819.34741550648</v>
       </c>
       <c r="D3" t="n">
-        <v>18844.15112059535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>42181.20357783943</v>
+        <v>46735.18559752357</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6880.060040147872</v>
+        <v>60682.19338926125</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>61976.78621853292</v>
+        <v>22160.94949949875</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7362.594387005372</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22783.50446165626</v>
+        <v>25835.13805421652</v>
       </c>
       <c r="C4" t="n">
         <v>22783.50446165626</v>
       </c>
       <c r="D4" t="n">
-        <v>19768.92075809781</v>
+        <v>22783.50446165626</v>
       </c>
       <c r="E4" t="n">
-        <v>13473.92108973545</v>
+        <v>15037.34613959868</v>
       </c>
       <c r="F4" t="n">
-        <v>13473.92108973545</v>
+        <v>15037.34613959868</v>
       </c>
       <c r="G4" t="n">
-        <v>13158.07282148896</v>
+        <v>12356.64331664209</v>
       </c>
       <c r="H4" t="n">
-        <v>13158.07282148896</v>
+        <v>12356.64331664209</v>
       </c>
       <c r="I4" t="n">
         <v>11332.82576561642</v>
@@ -26444,22 +26444,22 @@
         <v>11332.82576561642</v>
       </c>
       <c r="K4" t="n">
-        <v>11332.82576561642</v>
+        <v>11332.82576561643</v>
       </c>
       <c r="L4" t="n">
-        <v>11332.82576561642</v>
+        <v>11332.82576561643</v>
       </c>
       <c r="M4" t="n">
         <v>11332.82576561642</v>
       </c>
       <c r="N4" t="n">
-        <v>11332.82576561642</v>
+        <v>11332.82576561643</v>
       </c>
       <c r="O4" t="n">
-        <v>10964.26912300778</v>
+        <v>10302.85291641995</v>
       </c>
       <c r="P4" t="n">
-        <v>10964.26912300778</v>
+        <v>10302.85291641995</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41038.22012697312</v>
+        <v>40563.74085539449</v>
       </c>
       <c r="C5" t="n">
         <v>41038.22012697312</v>
       </c>
       <c r="D5" t="n">
-        <v>41517.8975895426</v>
+        <v>41038.22012697312</v>
       </c>
       <c r="E5" t="n">
-        <v>9034.866676285994</v>
+        <v>8678.759586280614</v>
       </c>
       <c r="F5" t="n">
-        <v>9034.866676285994</v>
+        <v>8678.759586280612</v>
       </c>
       <c r="G5" t="n">
-        <v>9484.774515424369</v>
+        <v>12723.46281787509</v>
       </c>
       <c r="H5" t="n">
-        <v>9484.774515424369</v>
+        <v>12723.46281787509</v>
       </c>
       <c r="I5" t="n">
         <v>14248.48149238823</v>
@@ -26508,10 +26508,10 @@
         <v>14248.48149238823</v>
       </c>
       <c r="O5" t="n">
-        <v>13954.2996123975</v>
+        <v>13426.35725397701</v>
       </c>
       <c r="P5" t="n">
-        <v>13954.2996123975</v>
+        <v>13426.35725397701</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-299781.5621687748</v>
+        <v>-297169.2040518997</v>
       </c>
       <c r="C6" t="n">
-        <v>27785.8640887002</v>
+        <v>-7079.709457705871</v>
       </c>
       <c r="D6" t="n">
-        <v>12090.0325520835</v>
+        <v>12739.63795780061</v>
       </c>
       <c r="E6" t="n">
-        <v>28787.88422840359</v>
+        <v>7707.29310150966</v>
       </c>
       <c r="F6" t="n">
-        <v>70969.08780624304</v>
+        <v>54442.47869903321</v>
       </c>
       <c r="G6" t="n">
-        <v>65014.47657060418</v>
+        <v>2670.577784110174</v>
       </c>
       <c r="H6" t="n">
-        <v>71894.5366107521</v>
+        <v>63352.77117337141</v>
       </c>
       <c r="I6" t="n">
-        <v>18655.99841401992</v>
+        <v>44549.18617240275</v>
       </c>
       <c r="J6" t="n">
-        <v>80632.78463255276</v>
+        <v>66710.13567190147</v>
       </c>
       <c r="K6" t="n">
-        <v>80632.78463255281</v>
+        <v>66710.13567190155</v>
       </c>
       <c r="L6" t="n">
-        <v>80632.78463255278</v>
+        <v>66710.13567190157</v>
       </c>
       <c r="M6" t="n">
-        <v>80632.78463255278</v>
+        <v>66710.13567190149</v>
       </c>
       <c r="N6" t="n">
-        <v>80632.78463255279</v>
+        <v>66710.13567190157</v>
       </c>
       <c r="O6" t="n">
-        <v>80404.53933374198</v>
+        <v>58518.14927809293</v>
       </c>
       <c r="P6" t="n">
-        <v>80404.539333742</v>
+        <v>65880.74366509831</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.9367030721617</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="C3" t="n">
         <v>339.9367030721617</v>
       </c>
       <c r="D3" t="n">
-        <v>361.9402564010368</v>
+        <v>339.9367030721617</v>
       </c>
       <c r="E3" t="n">
-        <v>414.4434255177061</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="F3" t="n">
-        <v>414.4434255177061</v>
+        <v>398.1082379027804</v>
       </c>
       <c r="G3" t="n">
-        <v>421.5868181391576</v>
+        <v>460.6052130531389</v>
       </c>
       <c r="H3" t="n">
-        <v>421.5868181391576</v>
+        <v>460.6052130531389</v>
       </c>
       <c r="I3" t="n">
         <v>484.169130786433</v>
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="H4" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="I4" t="n">
         <v>60.749908573092</v>
@@ -26816,22 +26816,22 @@
         <v>60.749908573092</v>
       </c>
       <c r="K4" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="L4" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M4" t="n">
         <v>60.749908573092</v>
       </c>
       <c r="N4" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O4" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P4" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
     </row>
   </sheetData>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.9367030721617</v>
+        <v>318.1715988713071</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>21.76510420085447</v>
       </c>
       <c r="D3" t="n">
-        <v>22.00355332887523</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>52.50316911666926</v>
+        <v>58.17153483061873</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7.143392621451565</v>
+        <v>62.49697515035848</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>62.58231264727539</v>
+        <v>23.56391773329409</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>55.91139081008652</v>
+        <v>16.63363927512063</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>30.59448906094457</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.36657971084286</v>
+        <v>1.279081804507766</v>
       </c>
       <c r="H2" t="n">
-        <v>13.99548446366944</v>
+        <v>13.09939653041517</v>
       </c>
       <c r="I2" t="n">
-        <v>52.68506430226941</v>
+        <v>49.31180126828571</v>
       </c>
       <c r="J2" t="n">
-        <v>115.9867447331493</v>
+        <v>108.5604693053411</v>
       </c>
       <c r="K2" t="n">
-        <v>173.8340638931276</v>
+        <v>162.7040020901549</v>
       </c>
       <c r="L2" t="n">
-        <v>215.6565277188348</v>
+        <v>201.8487018648595</v>
       </c>
       <c r="M2" t="n">
-        <v>239.9594396515365</v>
+        <v>224.5955729057745</v>
       </c>
       <c r="N2" t="n">
-        <v>243.8422342549688</v>
+        <v>228.2297640828322</v>
       </c>
       <c r="O2" t="n">
-        <v>230.2533072552751</v>
+        <v>215.5108943892581</v>
       </c>
       <c r="P2" t="n">
-        <v>196.5158706438419</v>
+        <v>183.9335623404726</v>
       </c>
       <c r="Q2" t="n">
-        <v>147.575234749282</v>
+        <v>138.1264452165381</v>
       </c>
       <c r="R2" t="n">
-        <v>85.84341276123287</v>
+        <v>80.34712240241106</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1409351608317</v>
+        <v>29.14707662022075</v>
       </c>
       <c r="T2" t="n">
-        <v>5.982202684214622</v>
+        <v>5.59918059923275</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1093263768674288</v>
+        <v>0.1023265443606213</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.684369099459038</v>
       </c>
       <c r="H3" t="n">
-        <v>7.061703963819812</v>
+        <v>6.609564723722816</v>
       </c>
       <c r="I3" t="n">
-        <v>25.17455772751386</v>
+        <v>23.56270802962039</v>
       </c>
       <c r="J3" t="n">
-        <v>69.08091057431542</v>
+        <v>64.65787180459272</v>
       </c>
       <c r="K3" t="n">
-        <v>118.0702792170545</v>
+        <v>110.5106014683483</v>
       </c>
       <c r="L3" t="n">
-        <v>158.7600611847865</v>
+        <v>148.5951415294723</v>
       </c>
       <c r="M3" t="n">
         <v>173.4035213848624</v>
@@ -31144,25 +31144,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O3" t="n">
-        <v>173.9674182222222</v>
+        <v>162.8288181506773</v>
       </c>
       <c r="P3" t="n">
-        <v>139.6241903618469</v>
+        <v>130.6844818081035</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.33507364351127</v>
+        <v>87.35911522217475</v>
       </c>
       <c r="R3" t="n">
-        <v>45.39758461027851</v>
+        <v>42.49091654360591</v>
       </c>
       <c r="S3" t="n">
-        <v>13.58143337274154</v>
+        <v>12.7118558605659</v>
       </c>
       <c r="T3" t="n">
-        <v>2.947187076635061</v>
+        <v>2.758487729837086</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04810425043473988</v>
+        <v>0.04502428285914726</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6130006120973406</v>
+        <v>0.5737520635384227</v>
       </c>
       <c r="H4" t="n">
-        <v>5.450132714829087</v>
+        <v>5.101177437641616</v>
       </c>
       <c r="I4" t="n">
-        <v>18.43460022561821</v>
+        <v>17.25428932895548</v>
       </c>
       <c r="J4" t="n">
-        <v>43.33914327528198</v>
+        <v>40.56427089216648</v>
       </c>
       <c r="K4" t="n">
-        <v>71.21952566003647</v>
+        <v>66.65955792746399</v>
       </c>
       <c r="L4" t="n">
-        <v>91.13647282036283</v>
+        <v>85.30128406461242</v>
       </c>
       <c r="M4" t="n">
-        <v>96.09063231267676</v>
+        <v>89.93824392357291</v>
       </c>
       <c r="N4" t="n">
-        <v>93.80581184940493</v>
+        <v>87.79971350492977</v>
       </c>
       <c r="O4" t="n">
-        <v>86.6448501535405</v>
+        <v>81.0972462172309</v>
       </c>
       <c r="P4" t="n">
-        <v>74.13963766675469</v>
+        <v>69.39270412104702</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.33044216389641</v>
+        <v>48.04391142956737</v>
       </c>
       <c r="R4" t="n">
-        <v>27.56273661303132</v>
+        <v>25.79797914782761</v>
       </c>
       <c r="S4" t="n">
-        <v>10.68292884900547</v>
+        <v>9.998933689119598</v>
       </c>
       <c r="T4" t="n">
-        <v>2.619184433506818</v>
+        <v>2.451486089664169</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03343639702349135</v>
+        <v>0.03129556710209581</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31305,7 +31305,7 @@
         <v>230.2533072552751</v>
       </c>
       <c r="P5" t="n">
-        <v>196.5158706438419</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q5" t="n">
         <v>147.575234749282</v>
@@ -31317,7 +31317,7 @@
         <v>31.1409351608317</v>
       </c>
       <c r="T5" t="n">
-        <v>5.982202684214622</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U5" t="n">
         <v>0.1093263768674288</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7311846066080457</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H6" t="n">
         <v>7.061703963819812</v>
@@ -31384,7 +31384,7 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P6" t="n">
-        <v>139.6241903618469</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q6" t="n">
         <v>93.33507364351127</v>
@@ -31469,13 +31469,13 @@
         <v>51.33044216389641</v>
       </c>
       <c r="R7" t="n">
-        <v>27.56273661303132</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S7" t="n">
         <v>10.68292884900547</v>
       </c>
       <c r="T7" t="n">
-        <v>2.619184433506818</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U7" t="n">
         <v>0.03343639702349135</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.455036206637333</v>
+        <v>1.36657971084286</v>
       </c>
       <c r="H8" t="n">
-        <v>14.90138955122459</v>
+        <v>13.99548446366944</v>
       </c>
       <c r="I8" t="n">
-        <v>56.09528335638583</v>
+        <v>52.68506430226941</v>
       </c>
       <c r="J8" t="n">
-        <v>123.4943792430854</v>
+        <v>115.9867447331493</v>
       </c>
       <c r="K8" t="n">
-        <v>185.0860618700438</v>
+        <v>173.8340638931276</v>
       </c>
       <c r="L8" t="n">
-        <v>229.6156261789211</v>
+        <v>215.6565277188348</v>
       </c>
       <c r="M8" t="n">
-        <v>255.4916263187078</v>
+        <v>239.9594396515365</v>
       </c>
       <c r="N8" t="n">
-        <v>259.6257479408162</v>
+        <v>243.8422342549688</v>
       </c>
       <c r="O8" t="n">
-        <v>245.1572316610661</v>
+        <v>230.2533072552751</v>
       </c>
       <c r="P8" t="n">
-        <v>209.2360253097069</v>
+        <v>196.515870643842</v>
       </c>
       <c r="Q8" t="n">
-        <v>157.1275411595074</v>
+        <v>147.575234749282</v>
       </c>
       <c r="R8" t="n">
-        <v>91.39991811518244</v>
+        <v>85.84341276123287</v>
       </c>
       <c r="S8" t="n">
-        <v>33.15663755874826</v>
+        <v>31.1409351608317</v>
       </c>
       <c r="T8" t="n">
-        <v>6.369420994554928</v>
+        <v>5.982202684214623</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1164028965309866</v>
+        <v>0.1093263768674288</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7785130043343056</v>
+        <v>0.7311846066080459</v>
       </c>
       <c r="H9" t="n">
-        <v>7.518796647123428</v>
+        <v>7.061703963819812</v>
       </c>
       <c r="I9" t="n">
-        <v>26.80406615800132</v>
+        <v>25.17455772751386</v>
       </c>
       <c r="J9" t="n">
-        <v>73.55240625598807</v>
+        <v>69.08091057431542</v>
       </c>
       <c r="K9" t="n">
-        <v>125.7127775463865</v>
+        <v>118.0702792170545</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>158.7600611847865</v>
       </c>
       <c r="M9" t="n">
         <v>173.4035213848624</v>
@@ -31621,22 +31621,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>148.6618385206447</v>
+        <v>139.624190361847</v>
       </c>
       <c r="Q9" t="n">
-        <v>99.37650209712999</v>
+        <v>93.33507364351127</v>
       </c>
       <c r="R9" t="n">
-        <v>48.33609688314225</v>
+        <v>45.39758461027851</v>
       </c>
       <c r="S9" t="n">
-        <v>14.46053760243764</v>
+        <v>13.58143337274154</v>
       </c>
       <c r="T9" t="n">
-        <v>3.137953732382573</v>
+        <v>2.947187076635061</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0512179608114675</v>
+        <v>0.04810425043473988</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6526791508871155</v>
+        <v>0.6130006120973406</v>
       </c>
       <c r="H10" t="n">
-        <v>5.802910996069087</v>
+        <v>5.450132714829087</v>
       </c>
       <c r="I10" t="n">
-        <v>19.62784210122345</v>
+        <v>18.43460022561821</v>
       </c>
       <c r="J10" t="n">
-        <v>46.14441596771907</v>
+        <v>43.33914327528198</v>
       </c>
       <c r="K10" t="n">
-        <v>75.82945043943032</v>
+        <v>71.21952566003647</v>
       </c>
       <c r="L10" t="n">
-        <v>97.03558939643536</v>
+        <v>91.13647282036283</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3104236249685</v>
+        <v>96.09063231267676</v>
       </c>
       <c r="N10" t="n">
-        <v>99.87771042620749</v>
+        <v>93.80581184940493</v>
       </c>
       <c r="O10" t="n">
-        <v>92.2532312544807</v>
+        <v>86.6448501535405</v>
       </c>
       <c r="P10" t="n">
-        <v>78.93857657638347</v>
+        <v>74.13963766675469</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.65297871655656</v>
+        <v>51.33044216389641</v>
       </c>
       <c r="R10" t="n">
-        <v>29.34682800261521</v>
+        <v>27.56273661303133</v>
       </c>
       <c r="S10" t="n">
-        <v>11.37441756591454</v>
+        <v>10.68292884900547</v>
       </c>
       <c r="T10" t="n">
-        <v>2.788720008335857</v>
+        <v>2.619184433506819</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03560068095747907</v>
+        <v>0.03343639702349135</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.666104223186757</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H11" t="n">
-        <v>17.06298987571138</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I11" t="n">
-        <v>64.2324830644075</v>
+        <v>61.70077524320381</v>
       </c>
       <c r="J11" t="n">
-        <v>141.4085133126971</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K11" t="n">
-        <v>211.9347050801926</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L11" t="n">
-        <v>262.9237422005444</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M11" t="n">
         <v>281.0224045372727</v>
@@ -31776,25 +31776,25 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>280.7198179344579</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P11" t="n">
-        <v>239.5878699245348</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.920512431659</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R11" t="n">
-        <v>104.6584194097552</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S11" t="n">
-        <v>37.96634998586826</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T11" t="n">
-        <v>7.293371237000032</v>
+        <v>7.00590476952531</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1332883378549405</v>
+        <v>0.1280348101797886</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8914443492267641</v>
+        <v>0.8563082853003202</v>
       </c>
       <c r="H12" t="n">
-        <v>8.609475688584801</v>
+        <v>8.270135281716252</v>
       </c>
       <c r="I12" t="n">
-        <v>30.69227255013201</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J12" t="n">
-        <v>84.22194178374441</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K12" t="n">
-        <v>143.9487131819376</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L12" t="n">
         <v>169.0363433314465</v>
@@ -31861,19 +31861,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7920892100691</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R12" t="n">
-        <v>55.34774652479858</v>
+        <v>53.16622845048833</v>
       </c>
       <c r="S12" t="n">
-        <v>16.55818780252343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T12" t="n">
-        <v>3.593146302365771</v>
+        <v>3.451523307855237</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05864765455439239</v>
+        <v>0.05633607140133688</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7473569968352076</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H13" t="n">
-        <v>6.644683117316669</v>
+        <v>6.382784535556058</v>
       </c>
       <c r="I13" t="n">
-        <v>22.4750631411897</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J13" t="n">
-        <v>52.83813967624918</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K13" t="n">
-        <v>86.82929472321774</v>
+        <v>83.40693902291036</v>
       </c>
       <c r="L13" t="n">
-        <v>111.1116029658453</v>
+        <v>106.7321659452799</v>
       </c>
       <c r="M13" t="n">
-        <v>117.1516063311771</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N13" t="n">
-        <v>114.3660029793369</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O13" t="n">
-        <v>105.6355144253983</v>
+        <v>101.4719161133186</v>
       </c>
       <c r="P13" t="n">
-        <v>90.38943168995998</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.58095725317362</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R13" t="n">
-        <v>33.6038882395176</v>
+        <v>32.27939909290412</v>
       </c>
       <c r="S13" t="n">
-        <v>13.02439420848266</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T13" t="n">
-        <v>3.193252622841341</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04076492710010228</v>
+        <v>0.03915818733469976</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.666104223186757</v>
+        <v>1.600435127247357</v>
       </c>
       <c r="H14" t="n">
-        <v>17.06298987571138</v>
+        <v>16.390456246922</v>
       </c>
       <c r="I14" t="n">
-        <v>64.2324830644075</v>
+        <v>61.70077524320379</v>
       </c>
       <c r="J14" t="n">
-        <v>141.4085133126971</v>
+        <v>135.8349308812105</v>
       </c>
       <c r="K14" t="n">
-        <v>211.9347050801926</v>
+        <v>203.5813498175912</v>
       </c>
       <c r="L14" t="n">
-        <v>262.9237422005444</v>
+        <v>252.5606663430875</v>
       </c>
       <c r="M14" t="n">
         <v>281.0224045372727</v>
@@ -32013,25 +32013,25 @@
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>280.7198179344579</v>
+        <v>269.6553140459984</v>
       </c>
       <c r="P14" t="n">
-        <v>239.5878699245348</v>
+        <v>230.1445718420792</v>
       </c>
       <c r="Q14" t="n">
-        <v>179.920512431659</v>
+        <v>172.8289888475332</v>
       </c>
       <c r="R14" t="n">
-        <v>104.6584194097552</v>
+        <v>100.5333330619519</v>
       </c>
       <c r="S14" t="n">
-        <v>37.96634998586826</v>
+        <v>36.46991546214919</v>
       </c>
       <c r="T14" t="n">
-        <v>7.293371237000032</v>
+        <v>7.005904769525309</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1332883378549405</v>
+        <v>0.1280348101797885</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8914443492267641</v>
+        <v>0.8563082853003201</v>
       </c>
       <c r="H15" t="n">
-        <v>8.609475688584801</v>
+        <v>8.27013528171625</v>
       </c>
       <c r="I15" t="n">
-        <v>30.69227255013201</v>
+        <v>29.48254403336629</v>
       </c>
       <c r="J15" t="n">
-        <v>84.22194178374441</v>
+        <v>80.90235427041316</v>
       </c>
       <c r="K15" t="n">
-        <v>143.9487131819376</v>
+        <v>138.2750093855346</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
@@ -32098,19 +32098,19 @@
         <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7920892100691</v>
+        <v>109.3070014709672</v>
       </c>
       <c r="R15" t="n">
-        <v>55.34774652479858</v>
+        <v>53.16622845048832</v>
       </c>
       <c r="S15" t="n">
-        <v>16.55818780252343</v>
+        <v>15.90555082564409</v>
       </c>
       <c r="T15" t="n">
-        <v>3.593146302365771</v>
+        <v>3.451523307855236</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05864765455439239</v>
+        <v>0.05633607140133687</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7473569968352076</v>
+        <v>0.7179001011361613</v>
       </c>
       <c r="H16" t="n">
-        <v>6.644683117316669</v>
+        <v>6.382784535556056</v>
       </c>
       <c r="I16" t="n">
-        <v>22.4750631411897</v>
+        <v>21.58921395053111</v>
       </c>
       <c r="J16" t="n">
-        <v>52.83813967624918</v>
+        <v>50.7555371503266</v>
       </c>
       <c r="K16" t="n">
-        <v>86.82929472321774</v>
+        <v>83.40693902291035</v>
       </c>
       <c r="L16" t="n">
-        <v>111.1116029658453</v>
+        <v>106.7321659452798</v>
       </c>
       <c r="M16" t="n">
-        <v>117.1516063311771</v>
+        <v>112.5341040353712</v>
       </c>
       <c r="N16" t="n">
-        <v>114.3660029793369</v>
+        <v>109.8582945675001</v>
       </c>
       <c r="O16" t="n">
-        <v>105.6355144253983</v>
+        <v>101.4719161133185</v>
       </c>
       <c r="P16" t="n">
-        <v>90.38943168995998</v>
+        <v>86.82675405014078</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.58095725317362</v>
+        <v>60.11434392331984</v>
       </c>
       <c r="R16" t="n">
-        <v>33.6038882395176</v>
+        <v>32.27939909290411</v>
       </c>
       <c r="S16" t="n">
-        <v>13.02439420848266</v>
+        <v>12.51104085343655</v>
       </c>
       <c r="T16" t="n">
-        <v>3.193252622841341</v>
+        <v>3.067391341218143</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04076492710010228</v>
+        <v>0.03915818733469975</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.694821379453898</v>
+        <v>1.851679248454828</v>
       </c>
       <c r="H17" t="n">
-        <v>17.35708945233224</v>
+        <v>18.96351010323801</v>
       </c>
       <c r="I17" t="n">
-        <v>65.33960123139649</v>
+        <v>71.38686422605484</v>
       </c>
       <c r="J17" t="n">
-        <v>143.8458460544254</v>
+        <v>157.1589616135431</v>
       </c>
       <c r="K17" t="n">
-        <v>215.587635046709</v>
+        <v>235.540544200636</v>
       </c>
       <c r="L17" t="n">
-        <v>267.4555248381713</v>
+        <v>292.2088730005356</v>
       </c>
       <c r="M17" t="n">
-        <v>285.8609223002782</v>
+        <v>325.1386738352441</v>
       </c>
       <c r="N17" t="n">
-        <v>284.7224553508464</v>
+        <v>324.0002068858123</v>
       </c>
       <c r="O17" t="n">
-        <v>285.5583356974633</v>
+        <v>311.9871219730937</v>
       </c>
       <c r="P17" t="n">
-        <v>243.7174328921951</v>
+        <v>266.2737905268651</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.0216422405023</v>
+        <v>199.9605274415765</v>
       </c>
       <c r="R17" t="n">
-        <v>106.462323477121</v>
+        <v>116.3155465907507</v>
       </c>
       <c r="S17" t="n">
-        <v>38.62074218430575</v>
+        <v>42.19514087416444</v>
       </c>
       <c r="T17" t="n">
-        <v>7.419080588559445</v>
+        <v>8.105725910111016</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1355857103563118</v>
+        <v>0.1481343398763862</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9068093824125276</v>
+        <v>0.99073574128411</v>
       </c>
       <c r="H18" t="n">
-        <v>8.757869561720993</v>
+        <v>9.568421501349169</v>
       </c>
       <c r="I18" t="n">
-        <v>31.22128794709799</v>
+        <v>34.11085775912397</v>
       </c>
       <c r="J18" t="n">
-        <v>85.67360046731693</v>
+        <v>93.60280089035534</v>
       </c>
       <c r="K18" t="n">
-        <v>146.4298290889563</v>
+        <v>159.9820955563907</v>
       </c>
       <c r="L18" t="n">
-        <v>173.6793654272599</v>
+        <v>213.1526126294179</v>
       </c>
       <c r="M18" t="n">
-        <v>178.2420391478678</v>
+        <v>217.5197906828337</v>
       </c>
       <c r="N18" t="n">
-        <v>165.0754065046721</v>
+        <v>176.8323862946513</v>
       </c>
       <c r="O18" t="n">
-        <v>178.8059359852277</v>
+        <v>218.0836875201936</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>189.1870732632789</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.7534222181325</v>
+        <v>126.4665483084769</v>
       </c>
       <c r="R18" t="n">
-        <v>56.3017263922445</v>
+        <v>61.51252260358714</v>
       </c>
       <c r="S18" t="n">
-        <v>16.84358655489935</v>
+        <v>18.40248186113247</v>
       </c>
       <c r="T18" t="n">
-        <v>3.655078168583827</v>
+        <v>3.99336029052674</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05965851200082421</v>
+        <v>0.06517998297921779</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7602385245132349</v>
+        <v>0.8305995645220536</v>
       </c>
       <c r="H19" t="n">
-        <v>6.759211608854039</v>
+        <v>7.384785219114264</v>
       </c>
       <c r="I19" t="n">
-        <v>22.86244580990711</v>
+        <v>24.97839417671776</v>
       </c>
       <c r="J19" t="n">
-        <v>53.7488636830857</v>
+        <v>58.72338921170919</v>
       </c>
       <c r="K19" t="n">
-        <v>88.32589402981036</v>
+        <v>96.50056758719857</v>
       </c>
       <c r="L19" t="n">
-        <v>113.0267348171768</v>
+        <v>123.4875025290333</v>
       </c>
       <c r="M19" t="n">
-        <v>119.1708443471064</v>
+        <v>130.2002571913979</v>
       </c>
       <c r="N19" t="n">
-        <v>116.3372280284663</v>
+        <v>127.1043860872703</v>
       </c>
       <c r="O19" t="n">
-        <v>107.4562598102889</v>
+        <v>117.4014729926263</v>
       </c>
       <c r="P19" t="n">
-        <v>91.94739391021885</v>
+        <v>100.4572418763763</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.65960953901279</v>
+        <v>69.55138717102396</v>
       </c>
       <c r="R19" t="n">
-        <v>34.18308856584054</v>
+        <v>37.34677678296433</v>
       </c>
       <c r="S19" t="n">
-        <v>13.24888410447155</v>
+        <v>14.47508513807978</v>
       </c>
       <c r="T19" t="n">
-        <v>3.248291877465639</v>
+        <v>3.548925412048773</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04146755588254013</v>
+        <v>0.04530543079211206</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.694821379453898</v>
+        <v>1.851679248454828</v>
       </c>
       <c r="H20" t="n">
-        <v>17.35708945233224</v>
+        <v>18.96351010323801</v>
       </c>
       <c r="I20" t="n">
-        <v>65.33960123139649</v>
+        <v>71.38686422605484</v>
       </c>
       <c r="J20" t="n">
-        <v>143.8458460544254</v>
+        <v>157.1589616135431</v>
       </c>
       <c r="K20" t="n">
-        <v>215.587635046709</v>
+        <v>235.540544200636</v>
       </c>
       <c r="L20" t="n">
-        <v>267.4555248381713</v>
+        <v>292.2088730005356</v>
       </c>
       <c r="M20" t="n">
-        <v>285.8609223002782</v>
+        <v>325.1386738352441</v>
       </c>
       <c r="N20" t="n">
-        <v>284.7224553508464</v>
+        <v>324.0002068858123</v>
       </c>
       <c r="O20" t="n">
-        <v>285.5583356974633</v>
+        <v>311.9871219730937</v>
       </c>
       <c r="P20" t="n">
-        <v>243.7174328921951</v>
+        <v>266.2737905268651</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.0216422405023</v>
+        <v>199.9605274415765</v>
       </c>
       <c r="R20" t="n">
-        <v>106.462323477121</v>
+        <v>116.3155465907507</v>
       </c>
       <c r="S20" t="n">
-        <v>38.62074218430575</v>
+        <v>42.19514087416444</v>
       </c>
       <c r="T20" t="n">
-        <v>7.419080588559445</v>
+        <v>8.105725910111016</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1355857103563118</v>
+        <v>0.1481343398763862</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9068093824125276</v>
+        <v>0.99073574128411</v>
       </c>
       <c r="H21" t="n">
-        <v>8.757869561720993</v>
+        <v>9.568421501349169</v>
       </c>
       <c r="I21" t="n">
-        <v>31.22128794709799</v>
+        <v>34.11085775912397</v>
       </c>
       <c r="J21" t="n">
-        <v>85.67360046731693</v>
+        <v>93.60280089035534</v>
       </c>
       <c r="K21" t="n">
-        <v>146.4298290889563</v>
+        <v>159.9820955563907</v>
       </c>
       <c r="L21" t="n">
-        <v>173.6793654272599</v>
+        <v>211.3701371022271</v>
       </c>
       <c r="M21" t="n">
-        <v>173.4035213848624</v>
+        <v>217.5197906828337</v>
       </c>
       <c r="N21" t="n">
-        <v>165.0754065046721</v>
+        <v>204.353158039638</v>
       </c>
       <c r="O21" t="n">
-        <v>178.8059359852277</v>
+        <v>218.0836875201936</v>
       </c>
       <c r="P21" t="n">
-        <v>168.2872948084884</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.7534222181325</v>
+        <v>126.4665483084769</v>
       </c>
       <c r="R21" t="n">
-        <v>56.3017263922445</v>
+        <v>61.51252260358714</v>
       </c>
       <c r="S21" t="n">
-        <v>16.84358655489935</v>
+        <v>18.40248186113247</v>
       </c>
       <c r="T21" t="n">
-        <v>3.655078168583827</v>
+        <v>3.99336029052674</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05965851200082421</v>
+        <v>0.06517998297921779</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7602385245132349</v>
+        <v>0.8305995645220536</v>
       </c>
       <c r="H22" t="n">
-        <v>6.759211608854039</v>
+        <v>7.384785219114264</v>
       </c>
       <c r="I22" t="n">
-        <v>22.86244580990711</v>
+        <v>24.97839417671776</v>
       </c>
       <c r="J22" t="n">
-        <v>53.7488636830857</v>
+        <v>58.72338921170919</v>
       </c>
       <c r="K22" t="n">
-        <v>88.32589402981036</v>
+        <v>96.50056758719857</v>
       </c>
       <c r="L22" t="n">
-        <v>113.0267348171768</v>
+        <v>123.4875025290333</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1708443471064</v>
+        <v>130.2002571913979</v>
       </c>
       <c r="N22" t="n">
-        <v>116.3372280284663</v>
+        <v>127.1043860872703</v>
       </c>
       <c r="O22" t="n">
-        <v>107.4562598102889</v>
+        <v>117.4014729926263</v>
       </c>
       <c r="P22" t="n">
-        <v>91.94739391021885</v>
+        <v>100.4572418763763</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.65960953901279</v>
+        <v>69.55138717102396</v>
       </c>
       <c r="R22" t="n">
-        <v>34.18308856584054</v>
+        <v>37.34677678296433</v>
       </c>
       <c r="S22" t="n">
-        <v>13.24888410447155</v>
+        <v>14.47508513807978</v>
       </c>
       <c r="T22" t="n">
-        <v>3.248291877465639</v>
+        <v>3.548925412048773</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04146755588254013</v>
+        <v>0.04530543079211206</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32794,10 +32794,10 @@
         <v>168.166555548718</v>
       </c>
       <c r="L24" t="n">
-        <v>191.914868168929</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M24" t="n">
-        <v>234.1534299579544</v>
+        <v>199.9476111496913</v>
       </c>
       <c r="N24" t="n">
         <v>220.9867973147587</v>
@@ -32955,7 +32955,7 @@
         <v>307.1578697751961</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7723131103647</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N26" t="n">
         <v>340.6338461609329</v>
@@ -33040,10 +33040,10 @@
         <v>220.9867973147587</v>
       </c>
       <c r="O27" t="n">
-        <v>234.7173267953142</v>
+        <v>200.5115079870511</v>
       </c>
       <c r="P27" t="n">
-        <v>164.6598002123003</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q27" t="n">
         <v>132.936399834041</v>
@@ -33192,10 +33192,10 @@
         <v>307.1578697751961</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7723131103647</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N29" t="n">
-        <v>340.6338461609329</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O29" t="n">
         <v>327.9479462705231</v>
@@ -33277,10 +33277,10 @@
         <v>220.9867973147587</v>
       </c>
       <c r="O30" t="n">
-        <v>234.7173267953142</v>
+        <v>200.5115079870512</v>
       </c>
       <c r="P30" t="n">
-        <v>164.6598002123003</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q30" t="n">
         <v>132.936399834041</v>
@@ -33429,10 +33429,10 @@
         <v>307.1578697751961</v>
       </c>
       <c r="M32" t="n">
-        <v>341.7723131103647</v>
+        <v>341.7723131103648</v>
       </c>
       <c r="N32" t="n">
-        <v>340.6338461609329</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O32" t="n">
         <v>327.9479462705231</v>
@@ -33505,7 +33505,7 @@
         <v>168.166555548718</v>
       </c>
       <c r="L33" t="n">
-        <v>226.1206869771921</v>
+        <v>191.9148681689291</v>
       </c>
       <c r="M33" t="n">
         <v>234.1534299579544</v>
@@ -33517,7 +33517,7 @@
         <v>234.7173267953142</v>
       </c>
       <c r="P33" t="n">
-        <v>164.6598002123003</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q33" t="n">
         <v>132.936399834041</v>
@@ -33906,7 +33906,7 @@
         <v>341.7723131103648</v>
       </c>
       <c r="N38" t="n">
-        <v>340.6338461609329</v>
+        <v>340.633846160933</v>
       </c>
       <c r="O38" t="n">
         <v>327.9479462705231</v>
@@ -33979,13 +33979,13 @@
         <v>168.166555548718</v>
       </c>
       <c r="L39" t="n">
-        <v>191.914868168929</v>
+        <v>226.1206869771921</v>
       </c>
       <c r="M39" t="n">
         <v>234.1534299579544</v>
       </c>
       <c r="N39" t="n">
-        <v>220.9867973147587</v>
+        <v>186.7809785064957</v>
       </c>
       <c r="O39" t="n">
         <v>234.7173267953142</v>
@@ -34140,10 +34140,10 @@
         <v>307.1578697751961</v>
       </c>
       <c r="M41" t="n">
-        <v>336.9337953473593</v>
+        <v>328.250532873338</v>
       </c>
       <c r="N41" t="n">
-        <v>335.7953283979274</v>
+        <v>327.1120659239062</v>
       </c>
       <c r="O41" t="n">
         <v>327.9479462705231</v>
@@ -34216,16 +34216,16 @@
         <v>168.166555548718</v>
       </c>
       <c r="L42" t="n">
-        <v>187.2718460731157</v>
+        <v>216.2644716675118</v>
       </c>
       <c r="M42" t="n">
-        <v>229.3149121949489</v>
+        <v>220.6316497209276</v>
       </c>
       <c r="N42" t="n">
-        <v>216.1482795517532</v>
+        <v>207.4650170777319</v>
       </c>
       <c r="O42" t="n">
-        <v>229.8788090323087</v>
+        <v>183.8704973777093</v>
       </c>
       <c r="P42" t="n">
         <v>198.8656190205634</v>
@@ -34377,10 +34377,10 @@
         <v>307.1578697751961</v>
       </c>
       <c r="M44" t="n">
-        <v>336.9337953473593</v>
+        <v>328.250532873338</v>
       </c>
       <c r="N44" t="n">
-        <v>335.7953283979274</v>
+        <v>327.1120659239062</v>
       </c>
       <c r="O44" t="n">
         <v>327.9479462705231</v>
@@ -34453,19 +34453,19 @@
         <v>168.166555548718</v>
       </c>
       <c r="L45" t="n">
-        <v>224.947734141533</v>
+        <v>216.2644716675118</v>
       </c>
       <c r="M45" t="n">
-        <v>229.3149121949489</v>
+        <v>183.3066005403495</v>
       </c>
       <c r="N45" t="n">
-        <v>216.1482795517532</v>
+        <v>207.4650170777319</v>
       </c>
       <c r="O45" t="n">
-        <v>227.6197629389719</v>
+        <v>221.1955465582874</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>198.8656190205634</v>
       </c>
       <c r="Q45" t="n">
         <v>132.936399834041</v>
@@ -35889,22 +35889,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.573846737151143</v>
       </c>
       <c r="M17" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="N17" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="O17" t="n">
-        <v>4.838517763005484</v>
+        <v>37.75994703362949</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.643022095813344</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4.643022095813346</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="M18" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="N18" t="n">
-        <v>4.838517763005484</v>
+        <v>16.59549755298464</v>
       </c>
       <c r="O18" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>25.73829621779598</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="M19" t="n">
-        <v>4.643022095813346</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="N19" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="O19" t="n">
-        <v>4.838517763005484</v>
+        <v>22.42046380686576</v>
       </c>
       <c r="P19" t="n">
-        <v>4.838517763005484</v>
+        <v>19.91332996391488</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4.643022095813346</v>
+        <v>4.573846737151143</v>
       </c>
       <c r="M20" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="N20" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="O20" t="n">
-        <v>4.838517763005484</v>
+        <v>31.26730403863587</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>6.492642994993617</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>4.643022095813346</v>
+        <v>42.33379377078063</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="N21" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="O21" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="P21" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0996796530920534</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="M22" t="n">
-        <v>4.543342442721293</v>
+        <v>42.33379377078063</v>
       </c>
       <c r="N22" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="O22" t="n">
-        <v>4.838517763005484</v>
+        <v>44.11626929797137</v>
       </c>
       <c r="P22" t="n">
-        <v>4.838517763005484</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>52.29430353777808</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>60.749908573092</v>
+        <v>19.52284351181169</v>
       </c>
       <c r="M23" t="n">
         <v>60.749908573092</v>
@@ -36372,7 +36372,7 @@
         <v>60.749908573092</v>
       </c>
       <c r="O23" t="n">
-        <v>58.29536681256302</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>22.87852483748254</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M24" t="n">
-        <v>60.749908573092</v>
+        <v>26.54408976482893</v>
       </c>
       <c r="N24" t="n">
         <v>60.749908573092</v>
@@ -36521,7 +36521,7 @@
         <v>13.21118712247204</v>
       </c>
       <c r="L25" t="n">
-        <v>60.749908573092</v>
+        <v>20.63991561868339</v>
       </c>
       <c r="M25" t="n">
         <v>60.749908573092</v>
@@ -36530,10 +36530,10 @@
         <v>60.749908573092</v>
       </c>
       <c r="O25" t="n">
-        <v>45.084179690091</v>
+        <v>60.14159085232663</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>25.05258179217299</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>19.52284351181169</v>
       </c>
       <c r="M26" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N26" t="n">
         <v>60.749908573092</v>
@@ -36612,10 +36612,10 @@
         <v>47.22812833606525</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>52.29430353777803</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.29430353777809</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36688,10 +36688,10 @@
         <v>60.749908573092</v>
       </c>
       <c r="O27" t="n">
-        <v>60.749908573092</v>
+        <v>26.54408976482893</v>
       </c>
       <c r="P27" t="n">
-        <v>1.211023166817426</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>13.21118712247204</v>
       </c>
       <c r="L28" t="n">
-        <v>20.63991561868339</v>
+        <v>60.749908573092</v>
       </c>
       <c r="M28" t="n">
         <v>60.749908573092</v>
@@ -36767,7 +36767,7 @@
         <v>60.749908573092</v>
       </c>
       <c r="O28" t="n">
-        <v>60.14159085232663</v>
+        <v>20.03159789791801</v>
       </c>
       <c r="P28" t="n">
         <v>25.05258179217299</v>
@@ -36837,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>19.52284351181169</v>
+        <v>58.29536681256309</v>
       </c>
       <c r="M29" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N29" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O29" t="n">
-        <v>47.22812833606525</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.29430353777809</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>57.08434364574561</v>
       </c>
       <c r="M30" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N30" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O30" t="n">
-        <v>60.749908573092</v>
+        <v>26.54408976482904</v>
       </c>
       <c r="P30" t="n">
-        <v>1.211023166817426</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,19 +36992,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>13.21118712247204</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M31" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N31" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O31" t="n">
-        <v>20.03159789791801</v>
+        <v>33.24278502039009</v>
       </c>
       <c r="P31" t="n">
         <v>25.05258179217299</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>52.29430353777808</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>19.52284351181169</v>
+        <v>58.29536681256309</v>
       </c>
       <c r="M32" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N32" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O32" t="n">
-        <v>47.22812833606525</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>57.08434364574561</v>
+        <v>22.87852483748259</v>
       </c>
       <c r="M33" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N33" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O33" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P33" t="n">
-        <v>1.211023166817426</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>13.21118712247204</v>
       </c>
       <c r="L34" t="n">
-        <v>33.85110274115543</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="M34" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N34" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O34" t="n">
-        <v>60.14159085232663</v>
+        <v>20.03159789791806</v>
       </c>
       <c r="P34" t="n">
         <v>25.05258179217299</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>52.29430353777808</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.29430353777809</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37472,10 +37472,10 @@
         <v>60.749908573092</v>
       </c>
       <c r="M37" t="n">
+        <v>60.749908573092</v>
+      </c>
+      <c r="N37" t="n">
         <v>20.63991561868339</v>
-      </c>
-      <c r="N37" t="n">
-        <v>60.749908573092</v>
       </c>
       <c r="O37" t="n">
         <v>60.14159085232663</v>
@@ -37548,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>60.749908573092</v>
+        <v>19.52284351181169</v>
       </c>
       <c r="M38" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N38" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O38" t="n">
-        <v>58.29536681256302</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>52.29430353777818</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>22.87852483748254</v>
+        <v>57.08434364574561</v>
       </c>
       <c r="M39" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N39" t="n">
-        <v>60.749908573092</v>
+        <v>26.54408976482904</v>
       </c>
       <c r="O39" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="P39" t="n">
         <v>35.4168419750805</v>
@@ -37703,16 +37703,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>13.21118712247204</v>
       </c>
       <c r="L40" t="n">
-        <v>60.749908573092</v>
+        <v>20.6399156186835</v>
       </c>
       <c r="M40" t="n">
-        <v>60.749908573092</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="N40" t="n">
-        <v>33.85110274115543</v>
+        <v>60.74990857309206</v>
       </c>
       <c r="O40" t="n">
         <v>60.14159085232663</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>55.91139081008652</v>
+        <v>45.31992113056765</v>
       </c>
       <c r="M41" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="N41" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="O41" t="n">
-        <v>53.6523447167497</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>18.2355027416692</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="M42" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="N42" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="O42" t="n">
-        <v>55.91139081008652</v>
+        <v>9.903079155487154</v>
       </c>
       <c r="P42" t="n">
         <v>35.4168419750805</v>
@@ -37940,19 +37940,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>13.21118712247204</v>
       </c>
       <c r="L43" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="M43" t="n">
-        <v>55.91139081008652</v>
+        <v>7.056152215922618</v>
       </c>
       <c r="N43" t="n">
-        <v>28.59976292457671</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="O43" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P43" t="n">
         <v>25.05258179217299</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>53.6523447167497</v>
+        <v>45.31992113056765</v>
       </c>
       <c r="M44" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="N44" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="O44" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="M45" t="n">
-        <v>55.91139081008652</v>
+        <v>9.903079155487154</v>
       </c>
       <c r="N45" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="O45" t="n">
-        <v>53.6523447167497</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>35.4168419750805</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>13.21118712247204</v>
       </c>
       <c r="L46" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="M46" t="n">
-        <v>55.91139081008652</v>
+        <v>7.056152215922618</v>
       </c>
       <c r="N46" t="n">
-        <v>55.91139081008652</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="O46" t="n">
-        <v>28.59976292457671</v>
+        <v>47.22812833606525</v>
       </c>
       <c r="P46" t="n">
         <v>25.05258179217299</v>
